--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\exampleForm\forms\exampleForm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="6360" windowWidth="27300" windowHeight="14680"/>
+    <workbookView xWindow="1924" yWindow="6362" windowWidth="27295" windowHeight="14675" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -367,9 +372,6 @@
   </si>
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>form_id</t>
   </si>
   <si>
     <t>exampleForm</t>
@@ -531,6 +533,9 @@
 Name not entered.
 {{/if}}</t>
     </r>
+  </si>
+  <si>
+    <t>table_id</t>
   </si>
 </sst>
 </file>
@@ -613,6 +618,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -907,36 +915,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+    <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" customWidth="1"/>
-    <col min="5" max="6" width="27.1640625" customWidth="1"/>
-    <col min="7" max="8" width="24.83203125" customWidth="1"/>
-    <col min="9" max="10" width="41.83203125" customWidth="1"/>
+    <col min="4" max="4" width="40.875" customWidth="1"/>
+    <col min="5" max="6" width="27.125" customWidth="1"/>
+    <col min="7" max="8" width="24.875" customWidth="1"/>
+    <col min="9" max="10" width="41.875" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="20.5" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.875" customWidth="1"/>
+    <col min="15" max="15" width="18.375" customWidth="1"/>
     <col min="16" max="16" width="18.5" customWidth="1"/>
     <col min="17" max="17" width="19" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="18.1640625" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" customWidth="1"/>
+    <col min="20" max="20" width="18.125" customWidth="1"/>
+    <col min="21" max="21" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="17.5" customHeight="1">
+    <row r="1" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -945,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -954,19 +962,19 @@
         <v>85</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5</v>
@@ -990,30 +998,30 @@
         <v>11</v>
       </c>
       <c r="U1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="2:21" ht="17.5" customHeight="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E2" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" t="s">
         <v>152</v>
-      </c>
-      <c r="I2" t="s">
-        <v>153</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" ht="17.5" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
@@ -1025,17 +1033,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="17.5" customHeight="1">
+    <row r="4" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="2:21" ht="17.5" customHeight="1">
+    <row r="5" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>14</v>
       </c>
@@ -1046,7 +1054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="17.5" customHeight="1">
+    <row r="6" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
         <v>16</v>
       </c>
@@ -1057,7 +1065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="17.5" customHeight="1">
+    <row r="7" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>4</v>
       </c>
@@ -1068,7 +1076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="17.5" customHeight="1">
+    <row r="8" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>3</v>
       </c>
@@ -1079,24 +1087,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="17.5" customHeight="1">
+    <row r="9" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="2:21" ht="17.5" customHeight="1">
+    <row r="10" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="2:21" ht="17.5" customHeight="1">
+    <row r="11" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1111,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="17.5" customHeight="1">
+    <row r="12" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1130,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="17.5" customHeight="1">
+    <row r="13" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1147,13 +1155,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="17.5" customHeight="1">
+    <row r="14" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="1"/>
       <c r="I14" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" t="s">
@@ -1163,16 +1171,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="17.5" customHeight="1">
+    <row r="15" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="2:21" ht="17.5" customHeight="1">
+    <row r="16" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -1180,7 +1188,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="3:21" ht="17.5" customHeight="1">
+    <row r="17" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1192,16 +1200,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="3:21" ht="17.5" customHeight="1">
+    <row r="18" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="3:21" ht="17.5" customHeight="1">
+    <row r="19" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
@@ -1209,26 +1217,26 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="3:21" ht="17.5" customHeight="1">
+    <row r="20" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="3:21" ht="17.5" customHeight="1">
+    <row r="21" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E21" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" t="s">
         <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" ht="17.5" customHeight="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1240,31 +1248,31 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="3:21" ht="17.5" customHeight="1">
+    <row r="23" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>58</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="3:21" ht="17.5" customHeight="1">
+    <row r="24" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="3:21" ht="17.5" customHeight="1">
+    <row r="25" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="3:21" ht="17.5" customHeight="1">
+    <row r="26" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E26" s="1" t="s">
         <v>38</v>
       </c>
@@ -1277,9 +1285,9 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="3:21" ht="24" customHeight="1">
+    <row r="27" spans="3:21" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
         <v>41</v>
@@ -1289,7 +1297,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="3:21" ht="17.5" customHeight="1">
+    <row r="28" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1305,16 +1313,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:21" ht="17.5" customHeight="1">
+    <row r="29" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="3:21" ht="17.5" customHeight="1">
+    <row r="30" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E30" s="1" t="s">
         <v>44</v>
       </c>
@@ -1327,7 +1335,7 @@
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="3:21" ht="17.5" customHeight="1">
+    <row r="31" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E31" s="1" t="s">
         <v>46</v>
       </c>
@@ -1341,18 +1349,18 @@
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="3:21" ht="17.5" customHeight="1">
+    <row r="32" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="3:10" ht="17.5" customHeight="1">
+    <row r="33" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
         <v>48</v>
@@ -1362,7 +1370,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="3:10" ht="17.5" customHeight="1">
+    <row r="34" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E34" s="1" t="s">
         <v>16</v>
       </c>
@@ -1376,9 +1384,9 @@
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="3:10" ht="17.5" customHeight="1">
+    <row r="35" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1387,9 +1395,9 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="3:10" ht="17.5" customHeight="1">
+    <row r="36" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D36" t="s">
         <v>52</v>
@@ -1401,15 +1409,15 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="3:10" ht="17.5" customHeight="1">
+    <row r="37" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="3:10" ht="17.5" customHeight="1">
+    <row r="38" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>91</v>
@@ -1423,9 +1431,9 @@
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="3:10" ht="17.5" customHeight="1">
+    <row r="39" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>55</v>
@@ -1437,9 +1445,9 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="3:10" ht="17.5" customHeight="1">
+    <row r="40" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E40" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>88</v>
@@ -1453,9 +1461,9 @@
       </c>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="3:10" ht="17.5" customHeight="1">
+    <row r="41" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="4"/>
@@ -1465,35 +1473,35 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="3:10" ht="17.5" customHeight="1">
+    <row r="42" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="3:10" ht="17.5" customHeight="1">
+    <row r="43" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="3:10" ht="17.5" customHeight="1">
+    <row r="44" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" t="s">
         <v>137</v>
-      </c>
-      <c r="D44" t="s">
-        <v>138</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="3:10" ht="17.5" customHeight="1">
+    <row r="45" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="3:10" ht="17.5" customHeight="1">
+    <row r="46" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E46" s="1" t="s">
         <v>3</v>
       </c>
@@ -1507,7 +1515,7 @@
       </c>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="3:10" ht="17.5" customHeight="1">
+    <row r="47" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E47" s="1" t="s">
         <v>61</v>
       </c>
@@ -1521,7 +1529,7 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="3:10" ht="17.5" customHeight="1">
+    <row r="48" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E48" s="1" t="s">
         <v>4</v>
       </c>
@@ -1535,24 +1543,24 @@
       </c>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="3:21" ht="17.5" customHeight="1">
+    <row r="49" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="3:21" ht="17.5" customHeight="1">
+    <row r="50" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="3:21" ht="17.5" customHeight="1">
+    <row r="51" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
         <v>66</v>
@@ -1562,7 +1570,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="3:21" ht="17.5" customHeight="1">
+    <row r="52" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>51</v>
       </c>
@@ -1570,7 +1578,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="3:21" ht="17.5" customHeight="1">
+    <row r="53" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E53" s="1" t="s">
         <v>22</v>
       </c>
@@ -1583,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="3:21" ht="17.5" customHeight="1">
+    <row r="54" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E54" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,7 +1613,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="3:21" ht="17.5" customHeight="1">
+    <row r="55" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E55" s="1" t="s">
         <v>73</v>
       </c>
@@ -1618,9 +1626,9 @@
       </c>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="3:21" ht="17.5" customHeight="1">
+    <row r="56" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E56" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>111</v>
@@ -1633,7 +1641,7 @@
       </c>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="3:21" ht="17.5" customHeight="1">
+    <row r="57" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>58</v>
       </c>
@@ -1641,7 +1649,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="3:21" ht="17.5" customHeight="1">
+    <row r="58" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E58" s="1" t="s">
         <v>22</v>
       </c>
@@ -1661,9 +1669,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="3:21" ht="17.5" customHeight="1">
+    <row r="59" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -1673,7 +1681,7 @@
       <c r="J59" s="2"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:21" ht="17.5" customHeight="1">
+    <row r="60" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>51</v>
       </c>
@@ -1685,22 +1693,22 @@
       <c r="J60" s="2"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="3:21" ht="17.5" customHeight="1">
+    <row r="61" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E61" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="3:21" ht="17.5" customHeight="1">
+    <row r="62" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E62" s="1" t="s">
         <v>32</v>
       </c>
@@ -1726,102 +1734,102 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="3:21" ht="17.5" customHeight="1">
+    <row r="63" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="3:21" ht="17.5" customHeight="1"/>
-    <row r="65" ht="17.5" customHeight="1"/>
-    <row r="66" ht="17.5" customHeight="1"/>
-    <row r="67" ht="17.5" customHeight="1"/>
-    <row r="68" ht="17.5" customHeight="1"/>
-    <row r="69" ht="17.5" customHeight="1"/>
-    <row r="70" ht="17.5" customHeight="1"/>
-    <row r="71" ht="17.5" customHeight="1"/>
-    <row r="72" ht="17.5" customHeight="1"/>
-    <row r="73" ht="17.5" customHeight="1"/>
-    <row r="74" ht="17.5" customHeight="1"/>
-    <row r="75" ht="17.5" customHeight="1"/>
-    <row r="76" ht="17.5" customHeight="1"/>
-    <row r="77" ht="17.5" customHeight="1"/>
-    <row r="78" ht="17.5" customHeight="1"/>
-    <row r="79" ht="17.5" customHeight="1"/>
-    <row r="80" ht="17.5" customHeight="1"/>
-    <row r="81" ht="17.5" customHeight="1"/>
-    <row r="82" ht="17.5" customHeight="1"/>
-    <row r="83" ht="17.5" customHeight="1"/>
-    <row r="84" ht="17.5" customHeight="1"/>
-    <row r="85" ht="17.5" customHeight="1"/>
-    <row r="86" ht="17.5" customHeight="1"/>
-    <row r="87" ht="17.5" customHeight="1"/>
-    <row r="88" ht="17.5" customHeight="1"/>
-    <row r="89" ht="17.5" customHeight="1"/>
-    <row r="90" ht="17.5" customHeight="1"/>
-    <row r="91" ht="17.5" customHeight="1"/>
-    <row r="92" ht="17.5" customHeight="1"/>
-    <row r="93" ht="17.5" customHeight="1"/>
-    <row r="94" ht="17.5" customHeight="1"/>
-    <row r="95" ht="17.5" customHeight="1"/>
-    <row r="96" ht="17.5" customHeight="1"/>
-    <row r="97" ht="17.5" customHeight="1"/>
-    <row r="98" ht="17.5" customHeight="1"/>
-    <row r="99" ht="17.5" customHeight="1"/>
-    <row r="100" ht="17.5" customHeight="1"/>
-    <row r="101" ht="17.5" customHeight="1"/>
-    <row r="102" ht="17.5" customHeight="1"/>
-    <row r="103" ht="17.5" customHeight="1"/>
-    <row r="104" ht="17.5" customHeight="1"/>
-    <row r="105" ht="17.5" customHeight="1"/>
-    <row r="106" ht="17.5" customHeight="1"/>
-    <row r="107" ht="17.5" customHeight="1"/>
-    <row r="108" ht="17.5" customHeight="1"/>
-    <row r="109" ht="17.5" customHeight="1"/>
-    <row r="110" ht="17.5" customHeight="1"/>
-    <row r="111" ht="17.5" customHeight="1"/>
-    <row r="112" ht="17.5" customHeight="1"/>
-    <row r="113" ht="17.5" customHeight="1"/>
-    <row r="114" ht="17.5" customHeight="1"/>
-    <row r="115" ht="17.5" customHeight="1"/>
-    <row r="116" ht="17.5" customHeight="1"/>
-    <row r="117" ht="17.5" customHeight="1"/>
-    <row r="118" ht="17.5" customHeight="1"/>
-    <row r="119" ht="17.5" customHeight="1"/>
-    <row r="120" ht="17.5" customHeight="1"/>
-    <row r="121" ht="17.5" customHeight="1"/>
-    <row r="122" ht="17.5" customHeight="1"/>
-    <row r="123" ht="17.5" customHeight="1"/>
-    <row r="124" ht="17.5" customHeight="1"/>
-    <row r="125" ht="17.5" customHeight="1"/>
-    <row r="126" ht="17.5" customHeight="1"/>
-    <row r="127" ht="17.5" customHeight="1"/>
-    <row r="128" ht="17.5" customHeight="1"/>
-    <row r="129" ht="17.5" customHeight="1"/>
-    <row r="130" ht="17.5" customHeight="1"/>
-    <row r="131" ht="17.5" customHeight="1"/>
-    <row r="132" ht="17.5" customHeight="1"/>
-    <row r="133" ht="17.5" customHeight="1"/>
-    <row r="134" ht="17.5" customHeight="1"/>
-    <row r="135" ht="17.5" customHeight="1"/>
-    <row r="136" ht="17.5" customHeight="1"/>
-    <row r="137" ht="17.5" customHeight="1"/>
-    <row r="138" ht="17.5" customHeight="1"/>
-    <row r="139" ht="17.5" customHeight="1"/>
-    <row r="140" ht="17.5" customHeight="1"/>
-    <row r="141" ht="17.5" customHeight="1"/>
-    <row r="142" ht="17.5" customHeight="1"/>
-    <row r="143" ht="17.5" customHeight="1"/>
-    <row r="144" ht="17.5" customHeight="1"/>
-    <row r="145" ht="17.5" customHeight="1"/>
-    <row r="146" ht="17.5" customHeight="1"/>
-    <row r="147" ht="17.5" customHeight="1"/>
-    <row r="148" ht="17.5" customHeight="1"/>
-    <row r="149" ht="17.5" customHeight="1"/>
-    <row r="150" ht="17.5" customHeight="1"/>
-    <row r="151" ht="17.5" customHeight="1"/>
-    <row r="152" ht="17.5" customHeight="1"/>
-    <row r="153" ht="17.5" customHeight="1"/>
-    <row r="154" ht="17.5" customHeight="1"/>
+    <row r="64" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1840,21 +1848,21 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.5" customHeight="1">
+    <row r="1" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.5" customHeight="1">
+    <row r="2" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -1880,25 +1888,25 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.5" customHeight="1">
+    <row r="1" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" t="s">
-        <v>122</v>
-      </c>
       <c r="C1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.5" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
@@ -1909,7 +1917,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.5" customHeight="1">
+    <row r="3" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
@@ -1920,7 +1928,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.5" customHeight="1">
+    <row r="4" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
@@ -1931,7 +1939,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.5" customHeight="1">
+    <row r="5" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>91</v>
       </c>
@@ -1942,7 +1950,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.5" customHeight="1">
+    <row r="6" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>91</v>
       </c>
@@ -1953,7 +1961,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.5" customHeight="1">
+    <row r="7" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>91</v>
       </c>
@@ -1964,7 +1972,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.5" customHeight="1">
+    <row r="8" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
@@ -1975,7 +1983,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.5" customHeight="1">
+    <row r="9" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>91</v>
       </c>
@@ -1986,7 +1994,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.5" customHeight="1">
+    <row r="10" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>91</v>
       </c>
@@ -1997,8 +2005,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="24" customHeight="1">
+    <row r="11" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2009,7 +2017,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+    <row r="13" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2020,7 +2028,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="14" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2028,10 +2036,10 @@
         <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2042,7 +2050,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24" customHeight="1">
+    <row r="16" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2053,7 +2061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1">
+    <row r="17" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2064,7 +2072,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1">
+    <row r="18" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2075,7 +2083,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1">
+    <row r="19" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2086,8 +2094,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17.5" customHeight="1"/>
-    <row r="21" spans="1:3" ht="17.5" customHeight="1">
+    <row r="20" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -2098,7 +2106,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17.5" customHeight="1">
+    <row r="22" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -2109,8 +2117,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17.5" customHeight="1"/>
-    <row r="24" spans="1:3" ht="17.5" customHeight="1"/>
+    <row r="23" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2125,55 +2133,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5" customHeight="1">
+    <row r="1" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A2" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="B3" s="1">
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.5" customHeight="1">
+    <row r="4" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="14.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="14.5" customHeight="1"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1924" yWindow="6362" windowWidth="27295" windowHeight="14675" activeTab="3"/>
+    <workbookView xWindow="1924" yWindow="6362" windowWidth="27295" windowHeight="14675"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>When were you born?</t>
-  </si>
-  <si>
-    <t>data('born') &amp;&amp; data('born').getDay() === now().getDay() &amp;&amp; data('born').getMonth() === now().getMonth()</t>
   </si>
   <si>
     <t>Happy Birthday!</t>
@@ -536,6 +533,9 @@
   </si>
   <si>
     <t>table_id</t>
+  </si>
+  <si>
+    <t>data('born') &amp;&amp; data('born').getDate() === now().getDate() &amp;&amp; data('born').getMonth() === now().getMonth()</t>
   </si>
 </sst>
 </file>
@@ -669,7 +669,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -704,7 +704,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -915,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U154"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -941,10 +941,10 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -953,28 +953,28 @@
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5</v>
@@ -998,7 +998,7 @@
         <v>11</v>
       </c>
       <c r="U1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -1007,21 +1007,21 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" t="s">
         <v>151</v>
-      </c>
-      <c r="I2" t="s">
-        <v>152</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="4" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1089,17 +1089,17 @@
     </row>
     <row r="9" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="F14" s="1"/>
       <c r="I14" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" t="s">
@@ -1173,14 +1173,14 @@
     </row>
     <row r="15" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -1202,14 +1202,14 @@
     </row>
     <row r="18" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
@@ -1219,21 +1219,21 @@
     </row>
     <row r="20" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E21" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" t="s">
         <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -1250,24 +1250,24 @@
     </row>
     <row r="23" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -1287,10 +1287,10 @@
     </row>
     <row r="27" spans="3:21" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1303,11 +1303,11 @@
       </c>
       <c r="F28" s="1"/>
       <c r="I28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U28" t="b">
         <v>1</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="29" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1324,34 +1324,34 @@
     </row>
     <row r="30" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="33" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -1376,17 +1376,17 @@
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="36" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1411,32 +1411,32 @@
     </row>
     <row r="37" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1447,23 +1447,23 @@
     </row>
     <row r="40" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E40" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="4"/>
@@ -1475,29 +1475,29 @@
     </row>
     <row r="42" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" t="s">
         <v>136</v>
-      </c>
-      <c r="D44" t="s">
-        <v>137</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
     <row r="45" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F45" s="1"/>
     </row>
@@ -1507,25 +1507,25 @@
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J47" s="2"/>
     </row>
@@ -1535,23 +1535,23 @@
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -1560,10 +1560,10 @@
     </row>
     <row r="51" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="52" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F52" s="1"/>
       <c r="I52" s="2"/>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="F53" s="1"/>
       <c r="I53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J53" s="2"/>
       <c r="U53" t="b">
@@ -1597,53 +1597,53 @@
       </c>
       <c r="F54" s="1"/>
       <c r="G54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" t="s">
+        <v>69</v>
+      </c>
+      <c r="R54" t="s">
         <v>70</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>71</v>
-      </c>
-      <c r="S54" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="55" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E55" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" t="s">
+        <v>73</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E56" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G56" t="s">
+        <v>75</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F57" s="1"/>
       <c r="I57" s="2"/>
@@ -1655,15 +1655,15 @@
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J58" s="2"/>
       <c r="N58" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U58" t="b">
         <v>1</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="59" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="60" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1695,14 +1695,14 @@
     </row>
     <row r="61" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E61" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -1714,18 +1714,18 @@
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" t="s">
+        <v>82</v>
+      </c>
+      <c r="O62" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="P62" s="1">
         <v>1</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="63" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1856,18 +1856,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1897,112 +1897,112 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
         <v>120</v>
       </c>
-      <c r="B1" t="s">
-        <v>121</v>
-      </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2011,10 +2011,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
         <v>101</v>
-      </c>
-      <c r="C12" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
@@ -2022,10 +2022,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
         <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
@@ -2033,10 +2033,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
@@ -2044,10 +2044,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
@@ -2066,10 +2066,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
@@ -2077,10 +2077,10 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
         <v>107</v>
-      </c>
-      <c r="C18" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
@@ -2088,33 +2088,33 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
         <v>109</v>
-      </c>
-      <c r="C19" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
         <v>111</v>
       </c>
-      <c r="B21" t="s">
-        <v>112</v>
-      </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2133,7 +2133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2146,26 +2146,26 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="1">
         <v>20130408</v>
@@ -2173,10 +2173,10 @@
     </row>
     <row r="4" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="157">
   <si>
     <t>type</t>
   </si>
@@ -59,9 +59,6 @@
     <t>constraint</t>
   </si>
   <si>
-    <t>constraint_message</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -446,19 +443,7 @@
     <t>end if // demo_screen_group</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>survey</t>
-  </si>
-  <si>
-    <t>display.hint</t>
-  </si>
-  <si>
-    <t>display.audio</t>
-  </si>
-  <si>
-    <t>display.image</t>
   </si>
   <si>
     <t>hideInContents</t>
@@ -537,11 +522,29 @@
   <si>
     <t>data('born') &amp;&amp; data('born').getDate() === now().getDate() &amp;&amp; data('born').getMonth() === now().getMonth()</t>
   </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.prompt.audio</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.prompt.image</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -702,6 +705,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -737,6 +757,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -915,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -929,22 +966,22 @@
     <col min="9" max="10" width="41.875" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="20.5" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="13" max="13" width="19.25" customWidth="1"/>
     <col min="14" max="14" width="15.875" customWidth="1"/>
     <col min="15" max="15" width="18.375" customWidth="1"/>
     <col min="16" max="16" width="18.5" customWidth="1"/>
     <col min="17" max="17" width="19" customWidth="1"/>
-    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="19" max="19" width="29.875" customWidth="1"/>
     <col min="20" max="20" width="18.125" customWidth="1"/>
     <col min="21" max="21" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -953,28 +990,28 @@
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5</v>
@@ -991,78 +1028,78 @@
       <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="U1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
         <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
         <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -1070,10 +1107,10 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
         <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -1081,39 +1118,39 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
         <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1"/>
       <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
         <v>23</v>
-      </c>
-      <c r="K11" t="s">
-        <v>24</v>
       </c>
       <c r="U11" t="b">
         <v>1</v>
@@ -1121,18 +1158,18 @@
     </row>
     <row r="12" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1"/>
       <c r="I12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J12" s="2"/>
       <c r="L12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="U12" t="b">
         <v>1</v>
@@ -1140,7 +1177,7 @@
     </row>
     <row r="13" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
@@ -1148,24 +1185,24 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="1"/>
       <c r="I14" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U14" t="b">
         <v>1</v>
@@ -1173,124 +1210,124 @@
     </row>
     <row r="15" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
         <v>34</v>
-      </c>
-      <c r="I17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E21" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" t="s">
         <v>36</v>
-      </c>
-      <c r="I22" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="3:21" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1299,15 +1336,15 @@
     </row>
     <row r="28" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F28" s="1"/>
       <c r="I28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U28" t="b">
         <v>1</v>
@@ -1315,7 +1352,7 @@
     </row>
     <row r="29" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1324,34 +1361,34 @@
     </row>
     <row r="30" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -1360,10 +1397,10 @@
     </row>
     <row r="33" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -1372,21 +1409,21 @@
     </row>
     <row r="34" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1397,10 +1434,10 @@
     </row>
     <row r="36" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1411,32 +1448,32 @@
     </row>
     <row r="37" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1447,23 +1484,23 @@
     </row>
     <row r="40" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E40" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="4"/>
@@ -1475,29 +1512,29 @@
     </row>
     <row r="42" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" t="s">
         <v>135</v>
-      </c>
-      <c r="D44" t="s">
-        <v>136</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
     <row r="45" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F45" s="1"/>
     </row>
@@ -1507,25 +1544,25 @@
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E47" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J47" s="2"/>
     </row>
@@ -1535,23 +1572,23 @@
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -1560,10 +1597,10 @@
     </row>
     <row r="51" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -1572,7 +1609,7 @@
     </row>
     <row r="52" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F52" s="1"/>
       <c r="I52" s="2"/>
@@ -1580,11 +1617,11 @@
     </row>
     <row r="53" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E53" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F53" s="1"/>
       <c r="I53" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J53" s="2"/>
       <c r="U53" t="b">
@@ -1593,57 +1630,57 @@
     </row>
     <row r="54" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E54" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" t="s">
+        <v>66</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" t="s">
+        <v>68</v>
+      </c>
+      <c r="R54" t="s">
         <v>69</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>70</v>
-      </c>
-      <c r="S54" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="55" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E55" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E56" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G56" t="s">
+        <v>74</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F57" s="1"/>
       <c r="I57" s="2"/>
@@ -1651,19 +1688,19 @@
     </row>
     <row r="58" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E58" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J58" s="2"/>
       <c r="N58" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U58" t="b">
         <v>1</v>
@@ -1671,7 +1708,7 @@
     </row>
     <row r="59" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -1683,7 +1720,7 @@
     </row>
     <row r="60" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1695,14 +1732,14 @@
     </row>
     <row r="61" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E61" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -1710,22 +1747,22 @@
     </row>
     <row r="62" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E62" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" t="s">
+        <v>81</v>
+      </c>
+      <c r="O62" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="P62" s="1">
         <v>1</v>
@@ -1736,7 +1773,7 @@
     </row>
     <row r="63" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1856,18 +1893,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1897,224 +1934,224 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
         <v>119</v>
       </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
         <v>100</v>
-      </c>
-      <c r="C12" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
         <v>102</v>
-      </c>
-      <c r="C13" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
         <v>106</v>
-      </c>
-      <c r="C18" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
         <v>108</v>
-      </c>
-      <c r="C19" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
         <v>110</v>
       </c>
-      <c r="B21" t="s">
-        <v>111</v>
-      </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2134,7 +2171,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2146,26 +2183,26 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1">
         <v>20130408</v>
@@ -2173,10 +2210,10 @@
     </row>
     <row r="4" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1924" yWindow="6362" windowWidth="27295" windowHeight="14675"/>
+    <workbookView xWindow="1924" yWindow="6362" windowWidth="27295" windowHeight="14675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="calculates" sheetId="2" r:id="rId2"/>
-    <sheet name="choices" sheetId="3" r:id="rId3"/>
-    <sheet name="settings" sheetId="4" r:id="rId4"/>
+    <sheet name="table_specific_translations" sheetId="5" r:id="rId2"/>
+    <sheet name="calculates" sheetId="2" r:id="rId3"/>
+    <sheet name="choices" sheetId="3" r:id="rId4"/>
+    <sheet name="settings" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="172">
   <si>
     <t>type</t>
   </si>
@@ -539,6 +540,51 @@
   </si>
   <si>
     <t>display.title.text</t>
+  </si>
+  <si>
+    <t>string_token</t>
+  </si>
+  <si>
+    <t>text.hindi</t>
+  </si>
+  <si>
+    <t>first_prompt</t>
+  </si>
+  <si>
+    <t>display.title.text.hindi</t>
+  </si>
+  <si>
+    <t>hindi exampleform</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>English (as hindi name)</t>
+  </si>
+  <si>
+    <t>hindi</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Hindi (as hindi name)</t>
+  </si>
+  <si>
+    <t>display.locale.text.english</t>
+  </si>
+  <si>
+    <t>display.locale.text.hindi</t>
+  </si>
+  <si>
+    <t>HINDI Enter an initial rating (1-10) for this survey</t>
+  </si>
+  <si>
+    <t>display.prompt</t>
   </si>
 </sst>
 </file>
@@ -950,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U154"/>
+  <dimension ref="B1:V154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -963,20 +1009,20 @@
     <col min="4" max="4" width="40.875" customWidth="1"/>
     <col min="5" max="6" width="27.125" customWidth="1"/>
     <col min="7" max="8" width="24.875" customWidth="1"/>
-    <col min="9" max="10" width="41.875" customWidth="1"/>
-    <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="20.5" customWidth="1"/>
-    <col min="13" max="13" width="19.25" customWidth="1"/>
-    <col min="14" max="14" width="15.875" customWidth="1"/>
-    <col min="15" max="15" width="18.375" customWidth="1"/>
-    <col min="16" max="16" width="18.5" customWidth="1"/>
-    <col min="17" max="17" width="19" customWidth="1"/>
-    <col min="19" max="19" width="29.875" customWidth="1"/>
-    <col min="20" max="20" width="18.125" customWidth="1"/>
-    <col min="21" max="21" width="14.375" customWidth="1"/>
+    <col min="9" max="11" width="41.875" customWidth="1"/>
+    <col min="12" max="12" width="40" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="14" max="14" width="19.25" customWidth="1"/>
+    <col min="15" max="15" width="15.875" customWidth="1"/>
+    <col min="16" max="16" width="18.375" customWidth="1"/>
+    <col min="17" max="17" width="18.5" customWidth="1"/>
+    <col min="18" max="18" width="19" customWidth="1"/>
+    <col min="20" max="20" width="29.875" customWidth="1"/>
+    <col min="21" max="21" width="18.125" customWidth="1"/>
+    <col min="22" max="22" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>125</v>
       </c>
@@ -1002,43 +1048,46 @@
         <v>151</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E2" s="4" t="s">
         <v>31</v>
       </c>
@@ -1046,17 +1095,17 @@
       <c r="G2" t="s">
         <v>145</v>
       </c>
-      <c r="I2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J2" t="b">
+      <c r="J2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" t="b">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
         <v>123</v>
       </c>
@@ -1070,7 +1119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>126</v>
       </c>
@@ -1080,7 +1129,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>13</v>
       </c>
@@ -1091,7 +1140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
         <v>15</v>
       </c>
@@ -1102,7 +1151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>4</v>
       </c>
@@ -1113,7 +1162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>3</v>
       </c>
@@ -1124,14 +1173,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>127</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>126</v>
       </c>
@@ -1141,7 +1190,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1149,14 +1198,14 @@
       <c r="I11" t="s">
         <v>22</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>23</v>
       </c>
-      <c r="U11" t="b">
+      <c r="V11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1165,17 +1214,18 @@
         <v>24</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="L12" s="1" t="s">
+      <c r="K12" s="2"/>
+      <c r="M12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U12" t="b">
+      <c r="V12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1188,11 +1238,12 @@
         <v>28</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="2"/>
+      <c r="L13" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1200,22 +1251,23 @@
       <c r="I14" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" t="s">
+      <c r="J14" s="8"/>
+      <c r="K14" s="2"/>
+      <c r="L14" t="s">
         <v>30</v>
       </c>
-      <c r="U14" t="b">
+      <c r="V14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>127</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="2:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>126</v>
       </c>
@@ -1225,7 +1277,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1237,14 +1289,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>127</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>126</v>
       </c>
@@ -1254,14 +1306,14 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>49</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E21" s="4" t="s">
         <v>140</v>
       </c>
@@ -1273,7 +1325,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1285,21 +1337,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>56</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>127</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>130</v>
       </c>
@@ -1309,7 +1361,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E26" s="1" t="s">
         <v>37</v>
       </c>
@@ -1321,8 +1373,9 @@
         <v>39</v>
       </c>
       <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="3:21" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="3:22" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>126</v>
       </c>
@@ -1333,8 +1386,9 @@
       <c r="F27" s="1"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E28" s="1" t="s">
         <v>21</v>
       </c>
@@ -1343,14 +1397,15 @@
         <v>40</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" t="s">
+      <c r="K28" s="2"/>
+      <c r="L28" t="s">
         <v>41</v>
       </c>
-      <c r="U28" t="b">
+      <c r="V28" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>127</v>
       </c>
@@ -1358,8 +1413,9 @@
       <c r="F29" s="1"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E30" s="1" t="s">
         <v>42</v>
       </c>
@@ -1371,8 +1427,9 @@
         <v>43</v>
       </c>
       <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E31" s="1" t="s">
         <v>44</v>
       </c>
@@ -1385,8 +1442,9 @@
         <v>45</v>
       </c>
       <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>131</v>
       </c>
@@ -1395,7 +1453,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>126</v>
       </c>
@@ -1407,7 +1465,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E34" s="1" t="s">
         <v>15</v>
       </c>
@@ -1420,8 +1478,9 @@
         <v>48</v>
       </c>
       <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>132</v>
       </c>
@@ -1431,8 +1490,9 @@
       <c r="H35" s="1"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>133</v>
       </c>
@@ -1445,14 +1505,15 @@
       <c r="H36" s="1"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="4" t="s">
         <v>123</v>
       </c>
@@ -1467,8 +1528,9 @@
         <v>52</v>
       </c>
       <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>126</v>
       </c>
@@ -1481,8 +1543,9 @@
       <c r="H39" s="1"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E40" s="4" t="s">
         <v>124</v>
       </c>
@@ -1497,8 +1560,9 @@
         <v>55</v>
       </c>
       <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>127</v>
       </c>
@@ -1509,20 +1573,21 @@
       <c r="H41" s="1"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="4" t="s">
         <v>137</v>
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>134</v>
       </c>
@@ -1532,13 +1597,13 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E46" s="1" t="s">
         <v>3</v>
       </c>
@@ -1551,8 +1616,9 @@
         <v>58</v>
       </c>
       <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E47" s="1" t="s">
         <v>59</v>
       </c>
@@ -1565,8 +1631,9 @@
         <v>61</v>
       </c>
       <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="3:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E48" s="1" t="s">
         <v>4</v>
       </c>
@@ -1579,14 +1646,15 @@
         <v>63</v>
       </c>
       <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>127</v>
       </c>
@@ -1594,8 +1662,9 @@
       <c r="F50" s="5"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>126</v>
       </c>
@@ -1606,16 +1675,18 @@
       <c r="F51" s="5"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F52" s="1"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E53" s="1" t="s">
         <v>21</v>
       </c>
@@ -1624,11 +1695,12 @@
         <v>65</v>
       </c>
       <c r="J53" s="2"/>
-      <c r="U53" t="b">
+      <c r="K53" s="2"/>
+      <c r="V53" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E54" s="1" t="s">
         <v>31</v>
       </c>
@@ -1640,17 +1712,18 @@
         <v>67</v>
       </c>
       <c r="J54" s="2"/>
-      <c r="K54" t="s">
+      <c r="K54" s="2"/>
+      <c r="L54" t="s">
         <v>68</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>69</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E55" s="1" t="s">
         <v>71</v>
       </c>
@@ -1662,8 +1735,9 @@
         <v>73</v>
       </c>
       <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E56" s="4" t="s">
         <v>124</v>
       </c>
@@ -1677,16 +1751,18 @@
         <v>75</v>
       </c>
       <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F57" s="1"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E58" s="1" t="s">
         <v>21</v>
       </c>
@@ -1699,14 +1775,15 @@
         <v>77</v>
       </c>
       <c r="J58" s="2"/>
-      <c r="N58" s="1" t="s">
+      <c r="K58" s="2"/>
+      <c r="O58" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="U58" t="b">
+      <c r="V58" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>127</v>
       </c>
@@ -1716,9 +1793,10 @@
       <c r="H59" s="1"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K59" s="2"/>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>49</v>
       </c>
@@ -1728,9 +1806,10 @@
       <c r="H60" s="1"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K60" s="2"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E61" s="4" t="s">
         <v>140</v>
       </c>
@@ -1743,9 +1822,10 @@
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K61" s="2"/>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E62" s="1" t="s">
         <v>31</v>
       </c>
@@ -1758,25 +1838,26 @@
         <v>80</v>
       </c>
       <c r="J62" s="2"/>
-      <c r="K62" t="s">
+      <c r="K62" s="2"/>
+      <c r="L62" t="s">
         <v>81</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="P62" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P62" s="1">
+      <c r="Q62" s="1">
         <v>1</v>
       </c>
-      <c r="Q62" s="1">
+      <c r="R62" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="3:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1879,6 +1960,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="3" width="74.375" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1917,7 +2040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
@@ -2166,9 +2289,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -2179,9 +2302,12 @@
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="24.125" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>117</v>
       </c>
@@ -2191,8 +2317,17 @@
       <c r="C1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>149</v>
       </c>
@@ -2200,7 +2335,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
@@ -2208,17 +2343,40 @@
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.6" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1924" yWindow="6362" windowWidth="27295" windowHeight="14675" activeTab="1"/>
+    <workbookView xWindow="1924" yWindow="6362" windowWidth="27295" windowHeight="14675" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -539,9 +539,6 @@
     <t>display.constraint_message.text</t>
   </si>
   <si>
-    <t>display.title.text</t>
-  </si>
-  <si>
     <t>string_token</t>
   </si>
   <si>
@@ -585,6 +582,9 @@
   </si>
   <si>
     <t>display.prompt</t>
+  </si>
+  <si>
+    <t>display.title.text.english</t>
   </si>
 </sst>
 </file>
@@ -998,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V154"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1048,7 +1048,7 @@
         <v>151</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>143</v>
@@ -1096,7 +1096,7 @@
         <v>145</v>
       </c>
       <c r="J2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -1962,7 +1962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1975,24 +1975,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
         <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2293,7 +2293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2315,16 +2315,16 @@
         <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" t="s">
         <v>168</v>
-      </c>
-      <c r="F1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -2351,29 +2351,29 @@
         <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" t="s">
         <v>162</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>163</v>
-      </c>
-      <c r="F5" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" t="s">
         <v>165</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>166</v>
-      </c>
-      <c r="F6" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.6" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1924" yWindow="6362" windowWidth="27295" windowHeight="14675" activeTab="4"/>
+    <workbookView xWindow="1924" yWindow="6362" windowWidth="27295" windowHeight="14675"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -998,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V154"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2293,7 +2293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1924" yWindow="6362" windowWidth="27295" windowHeight="14675"/>
+    <workbookView xWindow="1924" yWindow="6362" windowWidth="27295" windowHeight="14675" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -376,9 +376,6 @@
   </si>
   <si>
     <t>Example Form</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>setting_name</t>
@@ -585,6 +582,9 @@
   </si>
   <si>
     <t>display.title.text.english</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
   </si>
 </sst>
 </file>
@@ -998,7 +998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
+    <sheetView topLeftCell="C43" workbookViewId="0">
       <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
@@ -1024,10 +1024,10 @@
   <sheetData>
     <row r="1" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -1045,22 +1045,22 @@
         <v>83</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>5</v>
@@ -1078,13 +1078,13 @@
         <v>9</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="V1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -1093,21 +1093,21 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>11</v>
@@ -1121,10 +1121,10 @@
     </row>
     <row r="4" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1175,17 +1175,17 @@
     </row>
     <row r="9" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="F14" s="1"/>
       <c r="I14" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="2"/>
@@ -1262,14 +1262,14 @@
     </row>
     <row r="15" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
@@ -1291,14 +1291,14 @@
     </row>
     <row r="18" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
         <v>32</v>
@@ -1315,14 +1315,14 @@
     </row>
     <row r="21" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E21" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" t="s">
         <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -1346,17 +1346,17 @@
     </row>
     <row r="24" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="27" spans="3:22" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="29" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="32" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="33" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
         <v>46</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="35" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="36" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
         <v>50</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="38" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>89</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="39" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>53</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="40" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E40" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>86</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="41" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="4"/>
@@ -1583,16 +1583,16 @@
     </row>
     <row r="43" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" t="s">
         <v>134</v>
-      </c>
-      <c r="D44" t="s">
-        <v>135</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="50" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="51" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D51" t="s">
         <v>64</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="56" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E56" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>109</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="59" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -1811,14 +1811,14 @@
     </row>
     <row r="61" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E61" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="4" t="s">
         <v>79</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -1975,24 +1975,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2016,7 +2016,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>83</v>
@@ -2044,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2057,13 +2057,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
         <v>118</v>
       </c>
-      <c r="B1" t="s">
-        <v>119</v>
-      </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -2196,7 +2196,7 @@
         <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
@@ -2309,27 +2309,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" t="s">
         <v>167</v>
-      </c>
-      <c r="F1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>113</v>
@@ -2345,35 +2345,35 @@
     </row>
     <row r="4" spans="1:6" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" t="s">
         <v>161</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>162</v>
-      </c>
-      <c r="F5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" t="s">
         <v>164</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>165</v>
-      </c>
-      <c r="F6" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.6" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1924" yWindow="6362" windowWidth="27295" windowHeight="14675" activeTab="3"/>
+    <workbookView xWindow="1924" yWindow="6362" windowWidth="27295" windowHeight="14675" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="table_specific_translations" sheetId="5" r:id="rId2"/>
     <sheet name="calculates" sheetId="2" r:id="rId3"/>
     <sheet name="choices" sheetId="3" r:id="rId4"/>
-    <sheet name="settings" sheetId="4" r:id="rId5"/>
+    <sheet name="model" sheetId="6" r:id="rId5"/>
+    <sheet name="settings" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="173">
   <si>
     <t>type</t>
   </si>
@@ -585,6 +586,9 @@
   </si>
   <si>
     <t>display.title.text</t>
+  </si>
+  <si>
+    <t>default[0]</t>
   </si>
 </sst>
 </file>
@@ -998,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V154"/>
   <sheetViews>
-    <sheetView topLeftCell="C43" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2044,8 +2048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2290,6 +2294,47 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>

--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="127">
   <si>
     <t xml:space="preserve">comments</t>
   </si>
@@ -86,10 +86,13 @@
     <t xml:space="preserve">has_html</t>
   </si>
   <si>
+    <t xml:space="preserve">HTML</t>
+  </si>
+  <si>
     <t xml:space="preserve">Please acknowledge that prompts can contain &lt;b&gt;&lt;i&gt;html&lt;/i&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">data('has_html') == 'true'</t>
+    <t xml:space="preserve">data('has_html') == 'true' || data('has_html') == true</t>
   </si>
   <si>
     <t xml:space="preserve">You must acknowledge!</t>
@@ -642,8 +645,8 @@
   </sheetPr>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -746,19 +749,21 @@
       <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L4" s="4"/>
       <c r="N4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -776,61 +781,61 @@
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3"/>
       <c r="J10" s="6"/>
@@ -846,16 +851,16 @@
     <row r="12" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J12" s="6"/>
       <c r="M12" s="0" t="n">
@@ -865,16 +870,16 @@
     <row r="13" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="D13" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J13" s="6"/>
       <c r="M13" s="0" t="n">
@@ -884,36 +889,36 @@
     <row r="14" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="D14" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J15" s="6"/>
       <c r="L15" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="3"/>
       <c r="J16" s="6"/>
@@ -928,24 +933,24 @@
         <v>16</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -953,39 +958,39 @@
         <v>16</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D21" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22" s="3"/>
       <c r="J22" s="6"/>
@@ -1003,21 +1008,21 @@
         <v>16</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1031,33 +1036,33 @@
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D27" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1096,7 +1101,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F15 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1109,10 +1114,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
@@ -1120,24 +1125,24 @@
     </row>
     <row r="2" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1183,7 +1188,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="1" sqref="F15 E4"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1202,159 +1207,159 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +1381,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="1" sqref="F15 E4"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1388,70 +1393,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1473,7 +1478,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="F15 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1486,10 +1491,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>6</v>
@@ -1497,23 +1502,23 @@
     </row>
     <row r="2" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>20170726</v>
@@ -1521,15 +1526,15 @@
     </row>
     <row r="5" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>

--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -89,7 +89,7 @@
     <t xml:space="preserve">HTML</t>
   </si>
   <si>
-    <t xml:space="preserve">Please acknowledge that prompts can contain &lt;b&gt;&lt;i&gt;html&lt;/i&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">Please acknowledge that prompts can contain &lt;i&gt;&lt;span style="font-weight: bold; color: red;"&gt;html&lt;/span&gt;&lt;/i&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">data('has_html') == 'true' || data('has_html') == true</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">assign</t>
   </si>
   <si>
-    <t xml:space="preserve">data('add_one') + data('add_two')</t>
+    <t xml:space="preserve">Number(data('add_one')) + Number(data('add_two'))</t>
   </si>
   <si>
     <t xml:space="preserve">multiply_res</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">Result of multiplying the two numbers on the previous page</t>
   </si>
   <si>
-    <t xml:space="preserve">data('add_one') * data('add_two')</t>
+    <t xml:space="preserve">Number(data('add_one')) * Number(data('add_two'))</t>
   </si>
   <si>
     <t xml:space="preserve">possibly_required</t>
@@ -645,8 +645,8 @@
   </sheetPr>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -889,7 +889,7 @@
     <row r="14" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="D14" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>45</v>

--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="117">
   <si>
     <t xml:space="preserve">comments</t>
   </si>
@@ -80,6 +80,9 @@
     <t xml:space="preserve">Enter your name</t>
   </si>
   <si>
+    <t xml:space="preserve">Name hint text!</t>
+  </si>
+  <si>
     <t xml:space="preserve">acknowledge</t>
   </si>
   <si>
@@ -197,7 +200,7 @@
     <t xml:space="preserve">Might be required</t>
   </si>
   <si>
-    <t xml:space="preserve">data('make_above_required') == 'yes'</t>
+    <t xml:space="preserve">data('make_above_required') == 'yes' || data('make_above_required') == null</t>
   </si>
   <si>
     <t xml:space="preserve">select_one</t>
@@ -290,49 +293,16 @@
     <t xml:space="preserve">openRowInitialElementKeyToValueMap</t>
   </si>
   <si>
-    <t xml:space="preserve">refrigerator_model_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linked_table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refrigerator_types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catalog_id &gt;= ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['0']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'catalog_id&gt;='+opendatakit.encodeURIValue(0)</t>
+    <t xml:space="preserve">csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"regions1-2.csv"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_.chain(context).pluck('regionLevel1').uniq().map(function(regionLevel1){ return {name:regionLevel1, label:regionLevel1, data_value:regionLevel1, display:{title: {text:regionLevel1}}}; }).value()</t>
   </si>
   <si>
     <t xml:space="preserve">{}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">health_facility_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">health_facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin_region = ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[data('adminRegion')]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'facility_id&gt;='+opendatakit.encodeURIValue(0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"regions1-2.csv"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_.chain(context).pluck('regionLevel1').uniq().map(function(regionLevel1){ return {name:regionLevel1, label:regionLevel1, data_value:regionLevel1, display:{title: {text:regionLevel1}}}; }).value()</t>
   </si>
   <si>
     <t xml:space="preserve">_.map(context, function(place){ place.name = place.regionLevel2; place.label = place.regionLevel2; place.data_value = place.name; place.display = {title: {text:place.label}}; return place; })</t>
@@ -512,7 +482,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -547,10 +517,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -645,8 +611,8 @@
   </sheetPr>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -735,35 +701,38 @@
       <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="I3" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="L3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="4"/>
       <c r="N4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -781,61 +750,61 @@
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3"/>
       <c r="J10" s="6"/>
@@ -851,16 +820,16 @@
     <row r="12" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="D12" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J12" s="6"/>
       <c r="M12" s="0" t="n">
@@ -870,16 +839,16 @@
     <row r="13" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="D13" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J13" s="6"/>
       <c r="M13" s="0" t="n">
@@ -892,33 +861,33 @@
         <v>16</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="D15" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J15" s="6"/>
       <c r="L15" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="3"/>
       <c r="J16" s="6"/>
@@ -933,24 +902,24 @@
         <v>16</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D19" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -958,39 +927,39 @@
         <v>16</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D21" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="3"/>
       <c r="J22" s="6"/>
@@ -1008,21 +977,21 @@
         <v>16</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1036,33 +1005,33 @@
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D27" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1114,10 +1083,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
@@ -1125,24 +1094,24 @@
     </row>
     <row r="2" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1185,10 +1154,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1207,159 +1176,97 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="J2" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>94</v>
-      </c>
       <c r="K2" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="4" t="s">
-        <v>99</v>
+      <c r="G3" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>102</v>
+      <c r="H4" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1386,77 +1293,77 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="11" width="10.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="34.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="11" width="10.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="10" width="10.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="34.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="10" width="10.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="11" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1490,11 +1397,11 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>119</v>
+      <c r="A1" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>6</v>
@@ -1502,23 +1409,23 @@
     </row>
     <row r="2" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>20170726</v>
@@ -1526,15 +1433,15 @@
     </row>
     <row r="5" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>

--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -98,7 +98,7 @@
     <t xml:space="preserve">data('has_html') == 'true' || data('has_html') == true</t>
   </si>
   <si>
-    <t xml:space="preserve">You must acknowledge!</t>
+    <t xml:space="preserve">You must acknowledge the greatness of &lt;i&gt;&lt;span style="font-weight: bold; color: red;"&gt;html&lt;/span&gt;&lt;/i&gt;!</t>
   </si>
   <si>
     <t xml:space="preserve">end screen</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">Might be required</t>
   </si>
   <si>
-    <t xml:space="preserve">data('make_above_required') == 'yes' || data('make_above_required') == null</t>
+    <t xml:space="preserve">data('make_above_required') == 'yes'</t>
   </si>
   <si>
     <t xml:space="preserve">select_one</t>
@@ -612,7 +612,7 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="topLeft" activeCell="O5" activeCellId="0" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="133">
   <si>
     <t xml:space="preserve">comments</t>
   </si>
@@ -155,109 +155,157 @@
     <t xml:space="preserve">You can only type numbers in these two boxes</t>
   </si>
   <si>
+    <t xml:space="preserve">select_one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">operation</t>
+  </si>
+  <si>
     <t xml:space="preserve">add_two</t>
   </si>
   <si>
-    <t xml:space="preserve">Second addition number</t>
+    <t xml:space="preserve">add_res</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eval(data('add_one') + data('operation') + data('add_two'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiply_res</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiply result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result of multiplying the result on the previous page by two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number(data('add_res')) * 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">possibly_required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Possibly required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Might be required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('make_above_required') == 'yes'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yesno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make_above_required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make above required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select yes here to make the previous question required!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">possibly_required_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Possibly required 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave this blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('make_prev_required') == 'yes'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make_prev_required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make previous page required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selecting yes will make the prompt on the previous page required. You won’t be able to finalize until you go back. Also, the only allowed answer to this question is yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The only allowed answer is yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice_list_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">+</t>
   </si>
   <si>
-    <t xml:space="preserve">add_res</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Addition result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number(data('add_one')) + Number(data('add_two'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiply_res</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiply result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result of multiplying the two numbers on the previous page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number(data('add_one')) * Number(data('add_two'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">possibly_required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possibly required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Might be required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data('make_above_required') == 'yes'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yesno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">make_above_required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make above required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select yes here to make the previous question required!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">possibly_required_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possibly required 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leave this blank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data('make_prev_required') == 'yes'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">make_prev_required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make previous page required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selecting yes will make the prompt on the previous page required. You won’t be able to finalize until you go back. Also, the only allowed answer to this question is yes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The only allowed answer is yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divided By</t>
   </si>
   <si>
     <t xml:space="preserve">query_name</t>
@@ -609,10 +657,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O5" activeCellId="0" sqref="O5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -839,218 +887,293 @@
     <row r="13" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>44</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="0" t="s">
         <v>45</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="M13" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="D14" s="3" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="J14" s="6"/>
+      <c r="M14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="J15" s="6"/>
-      <c r="L15" s="0" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
-      <c r="B16" s="0" t="s">
+      <c r="D16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="L16" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5"/>
+      <c r="B17" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="D17" s="3"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D18" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D19" s="0" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D20" s="0" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F20" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M20" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="M21" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="0" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D22" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F22" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H22" s="0" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5"/>
-      <c r="B22" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="J22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D23" s="3"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D24" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="0" t="s">
+    <row r="24" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
+      <c r="B24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="D25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="F25" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="G25" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+      <c r="D26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="M24" s="0" t="s">
+      <c r="F26" s="0" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G26" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5"/>
       <c r="D27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5"/>
+      <c r="D28" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="F28" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5"/>
+      <c r="B29" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5"/>
+      <c r="B30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="M34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="N27" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="O27" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+      <c r="N34" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1070,7 +1193,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1083,10 +1206,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
@@ -1097,10 +1220,10 @@
         <v>60</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1108,16 +1231,57 @@
         <v>60</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1176,37 +1340,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,19 +1378,19 @@
         <v>27</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1234,19 +1398,19 @@
         <v>31</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1254,19 +1418,19 @@
         <v>35</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1300,70 +1464,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1398,10 +1562,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>6</v>
@@ -1409,23 +1573,23 @@
     </row>
     <row r="2" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>20170726</v>
@@ -1433,15 +1597,15 @@
     </row>
     <row r="5" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>

--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="149">
   <si>
     <t xml:space="preserve">comments</t>
   </si>
@@ -74,6 +74,18 @@
     <t xml:space="preserve">begin screen</t>
   </si>
   <si>
+    <t xml:space="preserve">assign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see_media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('see_media') == null ? 'yes' : data('see_media')</t>
+  </si>
+  <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
@@ -176,9 +188,6 @@
     <t xml:space="preserve">Equals</t>
   </si>
   <si>
-    <t xml:space="preserve">assign</t>
-  </si>
-  <si>
     <t xml:space="preserve">eval(data('add_one') + data('operation') + data('add_two'))</t>
   </si>
   <si>
@@ -218,6 +227,15 @@
     <t xml:space="preserve">Select yes here to make the previous question required!</t>
   </si>
   <si>
+    <t xml:space="preserve">Want to see some media?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('see_media') == 'yes'</t>
+  </si>
+  <si>
     <t xml:space="preserve">image</t>
   </si>
   <si>
@@ -240,6 +258,36 @@
   </si>
   <si>
     <t xml:space="preserve">Barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see_more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See more?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('see_more') == 'yes'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geopoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geopoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end if</t>
   </si>
   <si>
     <t xml:space="preserve">possibly_required_2</t>
@@ -431,8 +479,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -551,11 +599,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -563,7 +611,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -657,10 +705,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -738,84 +786,83 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="L3" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="0" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="4"/>
-      <c r="N4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="B5" s="0" t="s">
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
       <c r="B6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>30</v>
-      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>31</v>
@@ -826,14 +873,13 @@
       <c r="G8" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D9" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>35</v>
@@ -844,137 +890,144 @@
       <c r="G9" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="6"/>
       <c r="K9" s="0" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="J10" s="6"/>
+      <c r="A10" s="6"/>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6"/>
+      <c r="B12" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="M12" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="D12" s="3"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5"/>
+      <c r="A13" s="6"/>
       <c r="D13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="6"/>
+      <c r="H13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="M13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5"/>
+      <c r="A14" s="6"/>
       <c r="D14" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="M14" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6"/>
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="M15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5"/>
-      <c r="D15" s="3" t="s">
+    <row r="16" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6"/>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6"/>
+      <c r="D17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5"/>
-      <c r="D16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="L16" s="0" t="s">
+      <c r="F17" s="0" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5"/>
-      <c r="B17" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J17" s="5"/>
+      <c r="L17" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6"/>
       <c r="B18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D19" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D20" s="0" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="0" t="s">
         <v>55</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -982,92 +1035,93 @@
         <v>16</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="M21" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D22" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="H22" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="M22" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="0" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5"/>
-      <c r="B23" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="J23" s="6"/>
+      <c r="F23" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6"/>
+      <c r="B25" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5"/>
-      <c r="D25" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="0" t="s">
+      <c r="D25" s="3"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6"/>
+      <c r="D26" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5"/>
-      <c r="D26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="0" t="s">
+      <c r="H26" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="J26" s="6"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5"/>
-      <c r="D27" s="3" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="C27" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="J27" s="6"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5"/>
+      <c r="A28" s="6"/>
       <c r="D28" s="3" t="s">
         <v>70</v>
       </c>
@@ -1077,103 +1131,214 @@
       <c r="G28" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="J28" s="6"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5"/>
-      <c r="B29" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="J29" s="6"/>
+      <c r="A29" s="6"/>
+      <c r="D29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5"/>
-      <c r="B30" s="0" t="s">
+      <c r="A30" s="6"/>
+      <c r="D30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6"/>
+      <c r="D31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6"/>
+      <c r="D32" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6"/>
+      <c r="B33" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6"/>
+      <c r="D34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6"/>
+      <c r="D35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6"/>
+      <c r="B36" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6"/>
+      <c r="B37" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6"/>
+      <c r="B38" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6"/>
+      <c r="B39" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D31" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="M31" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+      <c r="D39" s="3"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D40" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D34" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="M34" s="0" t="n">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="M43" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="N34" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="O34" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="N43" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
     <row r="45" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1206,10 +1371,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
@@ -1217,69 +1382,69 @@
     </row>
     <row r="2" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1340,97 +1505,97 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1464,70 +1629,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1562,10 +1727,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>6</v>
@@ -1573,23 +1738,23 @@
     </row>
     <row r="2" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>20170726</v>
@@ -1597,15 +1762,15 @@
     </row>
     <row r="5" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>

--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\exampleForm\forms\exampleForm\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1924" yWindow="6362" windowWidth="27295" windowHeight="14675" activeTab="4"/>
+    <workbookView xWindow="9600" yWindow="6220" windowWidth="35100" windowHeight="18460"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="model" sheetId="6" r:id="rId5"/>
     <sheet name="settings" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="174">
   <si>
     <t>type</t>
   </si>
@@ -590,12 +585,15 @@
   <si>
     <t>default[0]</t>
   </si>
+  <si>
+    <t>(data('datetime') !== null &amp;&amp; data('datetime') !== undefined) ? data('datetime') : new Date()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -621,6 +619,18 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -639,8 +649,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -663,7 +675,9 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -722,7 +736,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -774,7 +788,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1000,33 +1014,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V154"/>
+  <dimension ref="B1:V155"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="40.875" customWidth="1"/>
-    <col min="5" max="6" width="27.125" customWidth="1"/>
-    <col min="7" max="8" width="24.875" customWidth="1"/>
-    <col min="9" max="11" width="41.875" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" customWidth="1"/>
+    <col min="5" max="6" width="27.1640625" customWidth="1"/>
+    <col min="7" max="8" width="24.83203125" customWidth="1"/>
+    <col min="9" max="11" width="41.83203125" customWidth="1"/>
     <col min="12" max="12" width="40" customWidth="1"/>
     <col min="13" max="13" width="20.5" customWidth="1"/>
-    <col min="14" max="14" width="19.25" customWidth="1"/>
-    <col min="15" max="15" width="15.875" customWidth="1"/>
-    <col min="16" max="16" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" customWidth="1"/>
     <col min="17" max="17" width="18.5" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
-    <col min="20" max="20" width="29.875" customWidth="1"/>
-    <col min="21" max="21" width="18.125" customWidth="1"/>
-    <col min="22" max="22" width="14.375" customWidth="1"/>
+    <col min="20" max="20" width="29.83203125" customWidth="1"/>
+    <col min="21" max="21" width="18.1640625" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:22" ht="17.5" customHeight="1">
       <c r="B1" t="s">
         <v>124</v>
       </c>
@@ -1091,7 +1105,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:22" ht="17.5" customHeight="1">
       <c r="E2" s="4" t="s">
         <v>31</v>
       </c>
@@ -1109,7 +1123,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" ht="17.5" customHeight="1">
       <c r="E3" s="4" t="s">
         <v>122</v>
       </c>
@@ -1123,7 +1137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:22" ht="17.5" customHeight="1">
       <c r="C4" t="s">
         <v>125</v>
       </c>
@@ -1133,7 +1147,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:22" ht="17.5" customHeight="1">
       <c r="E5" t="s">
         <v>13</v>
       </c>
@@ -1144,7 +1158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:22" ht="17.5" customHeight="1">
       <c r="E6" t="s">
         <v>15</v>
       </c>
@@ -1155,7 +1169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:22" ht="17.5" customHeight="1">
       <c r="E7" t="s">
         <v>4</v>
       </c>
@@ -1166,7 +1180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" ht="17.5" customHeight="1">
       <c r="E8" t="s">
         <v>3</v>
       </c>
@@ -1177,14 +1191,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" ht="17.5" customHeight="1">
       <c r="C9" t="s">
         <v>126</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:22" ht="17.5" customHeight="1">
       <c r="C10" t="s">
         <v>125</v>
       </c>
@@ -1194,7 +1208,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:22" ht="17.5" customHeight="1">
       <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1209,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" ht="17.5" customHeight="1">
       <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1229,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" ht="17.5" customHeight="1">
       <c r="E13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1247,7 +1261,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" ht="17.5" customHeight="1">
       <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1264,14 +1278,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22" ht="17.5" customHeight="1">
       <c r="C15" t="s">
         <v>126</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22" ht="17.5" customHeight="1">
       <c r="C16" t="s">
         <v>125</v>
       </c>
@@ -1281,7 +1295,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:22" ht="17.5" customHeight="1">
       <c r="E17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1293,14 +1307,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" ht="17.5" customHeight="1">
       <c r="C18" t="s">
         <v>126</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" ht="17.5" customHeight="1">
       <c r="C19" t="s">
         <v>125</v>
       </c>
@@ -1310,14 +1324,14 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:22" ht="17.5" customHeight="1">
       <c r="C20" t="s">
         <v>49</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" ht="17.5" customHeight="1">
       <c r="E21" s="4" t="s">
         <v>139</v>
       </c>
@@ -1329,7 +1343,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" ht="17.5" customHeight="1">
       <c r="E22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1341,21 +1355,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" ht="17.5" customHeight="1">
       <c r="C23" t="s">
         <v>56</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" ht="17.5" customHeight="1">
       <c r="C24" t="s">
         <v>126</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" ht="17.5" customHeight="1">
       <c r="C25" t="s">
         <v>129</v>
       </c>
@@ -1365,7 +1379,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:22" ht="17.5" customHeight="1">
       <c r="E26" s="1" t="s">
         <v>37</v>
       </c>
@@ -1379,7 +1393,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="3:22" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" ht="24" customHeight="1">
       <c r="C27" t="s">
         <v>125</v>
       </c>
@@ -1392,7 +1406,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" ht="17.5" customHeight="1">
       <c r="E28" s="1" t="s">
         <v>21</v>
       </c>
@@ -1409,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:22" ht="17.5" customHeight="1">
       <c r="C29" t="s">
         <v>126</v>
       </c>
@@ -1419,7 +1433,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" ht="17.5" customHeight="1">
       <c r="E30" s="1" t="s">
         <v>42</v>
       </c>
@@ -1433,75 +1447,75 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E31" s="1" t="s">
+    <row r="31" spans="3:22" ht="17.5" customHeight="1">
+      <c r="E31" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="H31" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
+    <row r="32" spans="3:22" ht="17.5" customHeight="1">
+      <c r="E32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="3:11" ht="17.5" customHeight="1">
+      <c r="C33" t="s">
         <v>130</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" t="s">
-        <v>46</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E34" s="1" t="s">
+    <row r="34" spans="3:11" ht="17.5" customHeight="1">
+      <c r="C34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="3:11" ht="17.5" customHeight="1">
+      <c r="E35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="2" t="s">
+      <c r="H35" s="1"/>
+      <c r="I35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:11" ht="17.5" customHeight="1">
       <c r="C36" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1511,169 +1525,171 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="1" t="s">
+    <row r="37" spans="3:11" ht="17.5" customHeight="1">
+      <c r="C37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="3:11" ht="17.5" customHeight="1">
+      <c r="C38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="3:11" ht="17.5" customHeight="1">
+      <c r="E39" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="2" t="s">
+      <c r="H39" s="1"/>
+      <c r="I39" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E40" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>54</v>
-      </c>
+    <row r="40" spans="3:11" ht="17.5" customHeight="1">
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="1"/>
+    <row r="41" spans="3:11" ht="17.5" customHeight="1">
+      <c r="E41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="2"/>
+      <c r="I41" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="1" t="s">
+    <row r="42" spans="3:11" ht="17.5" customHeight="1">
+      <c r="C42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="3:11" ht="17.5" customHeight="1">
+      <c r="C43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="4" t="s">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="3:11" ht="17.5" customHeight="1">
+      <c r="C44" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="3:11" ht="17.5" customHeight="1">
+      <c r="C45" t="s">
         <v>133</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="1" t="s">
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="3:11" ht="17.5" customHeight="1">
+      <c r="C46" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="3:11" ht="17.5" customHeight="1">
+      <c r="E47" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E47" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:11" ht="17.5" customHeight="1">
       <c r="E48" s="1" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="1" t="s">
+    <row r="49" spans="3:22" ht="17.5" customHeight="1">
+      <c r="E49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="3:22" ht="17.5" customHeight="1">
+      <c r="C50" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="3:22" ht="17.5" customHeight="1">
+      <c r="C51" t="s">
         <v>126</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
-        <v>125</v>
-      </c>
-      <c r="D51" t="s">
-        <v>64</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -1681,128 +1697,128 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F52" s="1"/>
+    <row r="52" spans="3:22" ht="17.5" customHeight="1">
+      <c r="C52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E53" s="1" t="s">
-        <v>21</v>
+    <row r="53" spans="3:22" ht="17.5" customHeight="1">
+      <c r="C53" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="F53" s="1"/>
-      <c r="I53" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-      <c r="V53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="3:22" ht="17.5" customHeight="1">
       <c r="E54" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F54" s="1"/>
-      <c r="G54" t="s">
-        <v>66</v>
-      </c>
       <c r="I54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="L54" t="s">
-        <v>68</v>
-      </c>
-      <c r="S54" t="s">
-        <v>69</v>
-      </c>
-      <c r="T54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" ht="17.5" customHeight="1">
       <c r="E55" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E56" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="L55" t="s">
+        <v>68</v>
+      </c>
+      <c r="S55" t="s">
+        <v>69</v>
+      </c>
+      <c r="T55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="3:22" ht="17.5" customHeight="1">
+      <c r="E56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" s="1"/>
       <c r="G56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="I57" s="2"/>
+    <row r="57" spans="3:22" ht="17.5" customHeight="1">
+      <c r="E57" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G57" t="s">
+        <v>74</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E58" s="1" t="s">
-        <v>21</v>
+    <row r="58" spans="3:22" ht="17.5" customHeight="1">
+      <c r="C58" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="F58" s="1"/>
-      <c r="G58" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H58" s="1"/>
-      <c r="I58" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
-      <c r="O58" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
-        <v>126</v>
-      </c>
-      <c r="E59" s="1"/>
+    </row>
+    <row r="59" spans="3:22" ht="17.5" customHeight="1">
+      <c r="E59" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="H59" s="1"/>
-      <c r="I59" s="2"/>
+      <c r="I59" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
-      <c r="O59" s="1"/>
-    </row>
-    <row r="60" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" ht="17.5" customHeight="1">
       <c r="C60" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1813,147 +1829,161 @@
       <c r="K60" s="2"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E61" s="4" t="s">
-        <v>139</v>
-      </c>
+    <row r="61" spans="3:22" ht="17.5" customHeight="1">
+      <c r="C61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>143</v>
-      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E62" s="1" t="s">
-        <v>31</v>
+    <row r="62" spans="3:22" ht="17.5" customHeight="1">
+      <c r="E62" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F62" s="1"/>
-      <c r="G62" s="1" t="s">
+      <c r="G62" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H62" s="1"/>
-      <c r="I62" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="H62" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
-      <c r="L62" t="s">
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="3:22" ht="17.5" customHeight="1">
+      <c r="E63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" t="s">
         <v>81</v>
       </c>
-      <c r="P62" s="1" t="s">
+      <c r="P63" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q62" s="1">
+      <c r="Q63" s="1">
         <v>1</v>
       </c>
-      <c r="R62" s="1">
+      <c r="R63" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
+    <row r="64" spans="3:22" ht="17.5" customHeight="1">
+      <c r="C64" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="17.5" customHeight="1"/>
+    <row r="66" ht="17.5" customHeight="1"/>
+    <row r="67" ht="17.5" customHeight="1"/>
+    <row r="68" ht="17.5" customHeight="1"/>
+    <row r="69" ht="17.5" customHeight="1"/>
+    <row r="70" ht="17.5" customHeight="1"/>
+    <row r="71" ht="17.5" customHeight="1"/>
+    <row r="72" ht="17.5" customHeight="1"/>
+    <row r="73" ht="17.5" customHeight="1"/>
+    <row r="74" ht="17.5" customHeight="1"/>
+    <row r="75" ht="17.5" customHeight="1"/>
+    <row r="76" ht="17.5" customHeight="1"/>
+    <row r="77" ht="17.5" customHeight="1"/>
+    <row r="78" ht="17.5" customHeight="1"/>
+    <row r="79" ht="17.5" customHeight="1"/>
+    <row r="80" ht="17.5" customHeight="1"/>
+    <row r="81" ht="17.5" customHeight="1"/>
+    <row r="82" ht="17.5" customHeight="1"/>
+    <row r="83" ht="17.5" customHeight="1"/>
+    <row r="84" ht="17.5" customHeight="1"/>
+    <row r="85" ht="17.5" customHeight="1"/>
+    <row r="86" ht="17.5" customHeight="1"/>
+    <row r="87" ht="17.5" customHeight="1"/>
+    <row r="88" ht="17.5" customHeight="1"/>
+    <row r="89" ht="17.5" customHeight="1"/>
+    <row r="90" ht="17.5" customHeight="1"/>
+    <row r="91" ht="17.5" customHeight="1"/>
+    <row r="92" ht="17.5" customHeight="1"/>
+    <row r="93" ht="17.5" customHeight="1"/>
+    <row r="94" ht="17.5" customHeight="1"/>
+    <row r="95" ht="17.5" customHeight="1"/>
+    <row r="96" ht="17.5" customHeight="1"/>
+    <row r="97" ht="17.5" customHeight="1"/>
+    <row r="98" ht="17.5" customHeight="1"/>
+    <row r="99" ht="17.5" customHeight="1"/>
+    <row r="100" ht="17.5" customHeight="1"/>
+    <row r="101" ht="17.5" customHeight="1"/>
+    <row r="102" ht="17.5" customHeight="1"/>
+    <row r="103" ht="17.5" customHeight="1"/>
+    <row r="104" ht="17.5" customHeight="1"/>
+    <row r="105" ht="17.5" customHeight="1"/>
+    <row r="106" ht="17.5" customHeight="1"/>
+    <row r="107" ht="17.5" customHeight="1"/>
+    <row r="108" ht="17.5" customHeight="1"/>
+    <row r="109" ht="17.5" customHeight="1"/>
+    <row r="110" ht="17.5" customHeight="1"/>
+    <row r="111" ht="17.5" customHeight="1"/>
+    <row r="112" ht="17.5" customHeight="1"/>
+    <row r="113" ht="17.5" customHeight="1"/>
+    <row r="114" ht="17.5" customHeight="1"/>
+    <row r="115" ht="17.5" customHeight="1"/>
+    <row r="116" ht="17.5" customHeight="1"/>
+    <row r="117" ht="17.5" customHeight="1"/>
+    <row r="118" ht="17.5" customHeight="1"/>
+    <row r="119" ht="17.5" customHeight="1"/>
+    <row r="120" ht="17.5" customHeight="1"/>
+    <row r="121" ht="17.5" customHeight="1"/>
+    <row r="122" ht="17.5" customHeight="1"/>
+    <row r="123" ht="17.5" customHeight="1"/>
+    <row r="124" ht="17.5" customHeight="1"/>
+    <row r="125" ht="17.5" customHeight="1"/>
+    <row r="126" ht="17.5" customHeight="1"/>
+    <row r="127" ht="17.5" customHeight="1"/>
+    <row r="128" ht="17.5" customHeight="1"/>
+    <row r="129" ht="17.5" customHeight="1"/>
+    <row r="130" ht="17.5" customHeight="1"/>
+    <row r="131" ht="17.5" customHeight="1"/>
+    <row r="132" ht="17.5" customHeight="1"/>
+    <row r="133" ht="17.5" customHeight="1"/>
+    <row r="134" ht="17.5" customHeight="1"/>
+    <row r="135" ht="17.5" customHeight="1"/>
+    <row r="136" ht="17.5" customHeight="1"/>
+    <row r="137" ht="17.5" customHeight="1"/>
+    <row r="138" ht="17.5" customHeight="1"/>
+    <row r="139" ht="17.5" customHeight="1"/>
+    <row r="140" ht="17.5" customHeight="1"/>
+    <row r="141" ht="17.5" customHeight="1"/>
+    <row r="142" ht="17.5" customHeight="1"/>
+    <row r="143" ht="17.5" customHeight="1"/>
+    <row r="144" ht="17.5" customHeight="1"/>
+    <row r="145" ht="17.5" customHeight="1"/>
+    <row r="146" ht="17.5" customHeight="1"/>
+    <row r="147" ht="17.5" customHeight="1"/>
+    <row r="148" ht="17.5" customHeight="1"/>
+    <row r="149" ht="17.5" customHeight="1"/>
+    <row r="150" ht="17.5" customHeight="1"/>
+    <row r="151" ht="17.5" customHeight="1"/>
+    <row r="152" ht="17.5" customHeight="1"/>
+    <row r="153" ht="17.5" customHeight="1"/>
+    <row r="154" ht="17.5" customHeight="1"/>
+    <row r="155" ht="17.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1970,14 +2000,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="3" width="74.375" customWidth="1"/>
+    <col min="2" max="3" width="74.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>155</v>
       </c>
@@ -1988,7 +2018,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -2001,6 +2031,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2012,13 +2047,13 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="17.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>119</v>
       </c>
@@ -2026,7 +2061,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="17.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
@@ -2052,14 +2087,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="17.5" customHeight="1">
       <c r="A1" t="s">
         <v>117</v>
       </c>
@@ -2070,7 +2105,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="17.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -2081,7 +2116,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="17.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -2092,7 +2127,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="17.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>89</v>
       </c>
@@ -2103,7 +2138,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="17.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>89</v>
       </c>
@@ -2114,7 +2149,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="17.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>89</v>
       </c>
@@ -2125,7 +2160,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="17.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
@@ -2136,7 +2171,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="17.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
@@ -2147,7 +2182,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="17.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>89</v>
       </c>
@@ -2158,7 +2193,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="17.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>89</v>
       </c>
@@ -2169,8 +2204,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="17.5" customHeight="1"/>
+    <row r="12" spans="1:3" ht="24" customHeight="1">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2181,7 +2216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2192,7 +2227,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2203,7 +2238,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2214,7 +2249,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -2225,7 +2260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2236,7 +2271,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2247,7 +2282,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2258,8 +2293,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="17.5" customHeight="1"/>
+    <row r="21" spans="1:3" ht="17.5" customHeight="1">
       <c r="A21" t="s">
         <v>109</v>
       </c>
@@ -2270,7 +2305,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="17.5" customHeight="1">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -2281,8 +2316,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:3" ht="17.5" customHeight="1"/>
+    <row r="24" spans="1:3" ht="17.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2297,17 +2332,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2318,7 +2353,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>122</v>
       </c>
@@ -2331,6 +2366,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2342,17 +2382,17 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
-    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="14.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>116</v>
       </c>
@@ -2372,7 +2412,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>148</v>
       </c>
@@ -2380,7 +2420,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
@@ -2388,7 +2428,7 @@
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="14.5" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>137</v>
       </c>
@@ -2399,7 +2439,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -2410,7 +2450,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="12.75" customHeight="1">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -2421,7 +2461,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:6" ht="14.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="151">
   <si>
     <t xml:space="preserve">comments</t>
   </si>
@@ -80,9 +80,6 @@
     <t xml:space="preserve">see_media</t>
   </si>
   <si>
-    <t xml:space="preserve">Media</t>
-  </si>
-  <si>
     <t xml:space="preserve">data('see_media') == null ? 'yes' : data('see_media')</t>
   </si>
   <si>
@@ -161,7 +158,7 @@
     <t xml:space="preserve">add_one</t>
   </si>
   <si>
-    <t xml:space="preserve">First addition number</t>
+    <t xml:space="preserve">Math first number</t>
   </si>
   <si>
     <t xml:space="preserve">You can only type numbers in these two boxes</t>
@@ -176,9 +173,15 @@
     <t xml:space="preserve">operation</t>
   </si>
   <si>
+    <t xml:space="preserve">Operation</t>
+  </si>
+  <si>
     <t xml:space="preserve">add_two</t>
   </si>
   <si>
+    <t xml:space="preserve">Math second number</t>
+  </si>
+  <si>
     <t xml:space="preserve">add_res</t>
   </si>
   <si>
@@ -282,6 +285,9 @@
   </si>
   <si>
     <t xml:space="preserve">signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signature</t>
   </si>
   <si>
     <t xml:space="preserve">TODO signature</t>
@@ -707,8 +713,8 @@
   </sheetPr>
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L21" activeCellId="0" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -792,18 +798,15 @@
       <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="J3" s="5"/>
       <c r="L3" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -811,40 +814,40 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="L4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="L5" s="4"/>
       <c r="N5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -862,61 +865,67 @@
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="H9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>41</v>
+      <c r="H10" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3"/>
       <c r="J11" s="5"/>
@@ -932,16 +941,16 @@
     <row r="13" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
       <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="J13" s="5"/>
       <c r="M13" s="0" t="n">
@@ -951,12 +960,15 @@
     <row r="14" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
       <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="F14" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>49</v>
       </c>
       <c r="J14" s="5"/>
@@ -964,10 +976,13 @@
     <row r="15" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>50</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="J15" s="5"/>
       <c r="M15" s="0" t="n">
@@ -977,16 +992,16 @@
     <row r="16" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
       <c r="D16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J16" s="5"/>
     </row>
@@ -996,17 +1011,17 @@
         <v>16</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J17" s="5"/>
       <c r="L17" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
       <c r="B18" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3"/>
       <c r="J18" s="5"/>
@@ -1018,16 +1033,16 @@
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D20" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1035,50 +1050,50 @@
         <v>16</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D22" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D23" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
       <c r="B24" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3"/>
       <c r="J24" s="5"/>
@@ -1094,110 +1109,122 @@
     <row r="26" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
       <c r="D26" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6"/>
       <c r="B27" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
       <c r="D28" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>72</v>
       </c>
       <c r="J28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
       <c r="D29" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
       <c r="D30" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>76</v>
       </c>
       <c r="J30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="D31" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>78</v>
       </c>
       <c r="J31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="D32" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D33" s="3"/>
       <c r="J33" s="5"/>
@@ -1205,33 +1232,39 @@
     <row r="34" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="D34" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="J34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="D35" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>88</v>
       </c>
       <c r="J35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D36" s="3"/>
       <c r="J36" s="5"/>
@@ -1239,7 +1272,7 @@
     <row r="37" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D37" s="3"/>
       <c r="J37" s="5"/>
@@ -1247,7 +1280,7 @@
     <row r="38" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="3"/>
       <c r="J38" s="5"/>
@@ -1262,24 +1295,24 @@
     </row>
     <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D40" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -1293,33 +1326,33 @@
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1371,10 +1404,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
@@ -1382,69 +1415,69 @@
     </row>
     <row r="2" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1505,97 +1538,97 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="K4" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1629,70 +1662,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>135</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1727,10 +1760,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>6</v>
@@ -1738,23 +1771,23 @@
     </row>
     <row r="2" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>20170726</v>
@@ -1762,15 +1795,15 @@
     </row>
     <row r="5" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>

--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -13,6 +13,7 @@
     <sheet name="queries" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="properties" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="settings" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="model" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="161">
   <si>
     <t xml:space="preserve">comments</t>
   </si>
@@ -71,6 +72,15 @@
     <t xml:space="preserve">display.constraint_message.text</t>
   </si>
   <si>
+    <t xml:space="preserve">legend_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y_value</t>
+  </si>
+  <si>
     <t xml:space="preserve">begin screen</t>
   </si>
   <si>
@@ -194,6 +204,21 @@
     <t xml:space="preserve">eval(data('add_one') + data('operation') + data('add_two'))</t>
   </si>
   <si>
+    <t xml:space="preserve">hidden_field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Your Number'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piechart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your number compared to some other numbers</t>
+  </si>
+  <si>
     <t xml:space="preserve">multiply_res</t>
   </si>
   <si>
@@ -414,6 +439,12 @@
   </si>
   <si>
     <t xml:space="preserve">_.map(context, function(place){ place.name = place.regionLevel3; place.label = place.regionLevel3; place.data_value = place.name; place.display = {title: {text:place.label}}; return place; })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"nums.csv"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">context</t>
   </si>
   <si>
     <t xml:space="preserve">partition</t>
@@ -711,10 +742,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L21" activeCellId="0" sqref="L21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -777,11 +808,20 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -793,20 +833,20 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="D3" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J3" s="5"/>
       <c r="L3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -814,40 +854,40 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L5" s="4"/>
       <c r="N5" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -858,74 +898,74 @@
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3"/>
       <c r="J11" s="5"/>
@@ -933,7 +973,7 @@
     <row r="12" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
       <c r="B12" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3"/>
       <c r="J12" s="5"/>
@@ -941,16 +981,16 @@
     <row r="13" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J13" s="5"/>
       <c r="M13" s="0" t="n">
@@ -960,29 +1000,29 @@
     <row r="14" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
       <c r="D14" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
       <c r="D15" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J15" s="5"/>
       <c r="M15" s="0" t="n">
@@ -992,386 +1032,444 @@
     <row r="16" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
       <c r="D16" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
       <c r="D17" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J17" s="5"/>
       <c r="L17" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
-      <c r="B18" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>59</v>
+      </c>
       <c r="J18" s="5"/>
-    </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D20" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D21" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L21" s="0" t="s">
+      <c r="L18" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6"/>
+      <c r="D19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="P19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q19" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D22" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="M22" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D23" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R19" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6"/>
+      <c r="D21" s="3"/>
+      <c r="J21" s="5"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6"/>
+      <c r="D22" s="3"/>
+      <c r="J22" s="5"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6"/>
+      <c r="D23" s="3"/>
+      <c r="J23" s="5"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
       <c r="B24" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D24" s="3"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
+    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D26" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="G26" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="0" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D28" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
-      <c r="B27" s="0" t="s">
+      <c r="G28" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="H28" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
-      <c r="D28" s="3" t="s">
+      <c r="M28" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="0" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D29" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
-      <c r="D29" s="3" t="s">
+      <c r="F29" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>74</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>74</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="J29" s="5"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
-      <c r="D30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>76</v>
-      </c>
+      <c r="B30" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="3"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
-      <c r="D31" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>78</v>
-      </c>
+      <c r="B31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="3"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="D32" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="3"/>
+        <v>78</v>
+      </c>
       <c r="J33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="D34" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="D35" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
-      <c r="B36" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>84</v>
+      </c>
       <c r="J36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
-      <c r="B37" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>86</v>
+      </c>
       <c r="J37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
-      <c r="B38" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>89</v>
+      </c>
       <c r="J38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="B39" s="0" t="s">
-        <v>15</v>
+        <v>77</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>90</v>
       </c>
       <c r="D39" s="3"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D40" s="0" t="s">
-        <v>19</v>
+    <row r="40" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6"/>
+      <c r="D40" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="M40" s="0" t="s">
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6"/>
+      <c r="D41" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F41" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6"/>
       <c r="B42" s="0" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D43" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="M43" s="0" t="n">
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6"/>
+      <c r="B43" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6"/>
+      <c r="B44" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6"/>
+      <c r="B45" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D46" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="M49" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="N43" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="O43" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="N49" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
     <row r="51" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="53" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="54" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1404,10 +1502,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
@@ -1415,69 +1513,69 @@
     </row>
     <row r="2" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1516,10 +1614,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1538,97 +1636,111 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1662,70 +1774,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1760,10 +1872,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>6</v>
@@ -1771,23 +1883,23 @@
     </row>
     <row r="2" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>20170726</v>
@@ -1795,15 +1907,15 @@
     </row>
     <row r="5" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>
@@ -1820,4 +1932,47 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -5024,7 +5024,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5186,7 +5186,7 @@
         <v>126</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>123</v>

--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,13 +14,14 @@
     <sheet name="dynamic_graphs_and_assigns" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="media" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="calculates_demo" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="hard_stuff" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="choices" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="queries" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="settings" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="properties" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="model" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="calculates" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="user_branch" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="hard_stuff" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="choices" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="queries" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="settings" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="properties" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="model" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="calculates" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="222">
   <si>
     <t xml:space="preserve">comments</t>
   </si>
@@ -142,6 +143,12 @@
     <t xml:space="preserve">do section calculates_demo</t>
   </si>
   <si>
+    <t xml:space="preserve">selected(data('sections'), 'user_branch')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section user_branch</t>
+  </si>
+  <si>
     <t xml:space="preserve">selected(data('sections'), 'hard_stuff')</t>
   </si>
   <si>
@@ -181,6 +188,12 @@
     <t xml:space="preserve">You must acknowledge the greatness of &lt;i&gt;&lt;span style="font-weight: bold; color: red;"&gt;html&lt;/span&gt;&lt;/i&gt;!</t>
   </si>
   <si>
+    <t xml:space="preserve">branch_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some label in another section</t>
+  </si>
+  <si>
     <t xml:space="preserve">select_one_dropdown</t>
   </si>
   <si>
@@ -373,6 +386,36 @@
     <t xml:space="preserve">Have you visited Seattle?</t>
   </si>
   <si>
+    <t xml:space="preserve">user_branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">branches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select where to go next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some label 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are at some label 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some label 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are at some label 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some label 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are at some label 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">possibly_required</t>
   </si>
   <si>
@@ -521,6 +564,9 @@
   </si>
   <si>
     <t xml:space="preserve">Hard stuff (constraints, etc..)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User branch</t>
   </si>
   <si>
     <t xml:space="preserve">query_name</t>
@@ -887,10 +933,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1143,22 +1189,40 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
+      <c r="B24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="B25" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+      <c r="B26" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="27" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1172,11 +1236,11 @@
     <row r="50" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="59" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="60" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1187,11 +1251,14 @@
     <row r="65" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="66" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="67" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1204,6 +1271,151 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="39.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="39.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="42.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="10.82"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1224,10 +1436,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>6</v>
@@ -1235,23 +1447,23 @@
     </row>
     <row r="2" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>20170726</v>
@@ -1259,15 +1471,15 @@
     </row>
     <row r="5" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>
@@ -1286,7 +1498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1306,70 +1518,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1383,7 +1595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1409,10 +1621,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1426,7 +1638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1444,7 +1656,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>11</v>
@@ -1458,10 +1670,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1529,10 +1741,10 @@
         <v>12</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O1" s="0" t="s">
         <v>13</v>
@@ -1560,7 +1772,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
@@ -1568,32 +1780,32 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1622,10 +1834,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1635,7 +1847,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -1672,76 +1884,91 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="0" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="0" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="0" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="J6" s="6"/>
+      <c r="D8" s="3"/>
+      <c r="J8" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1761,8 +1988,8 @@
   </sheetPr>
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R9" activeCellId="0" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1811,10 +2038,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
         <v>13</v>
@@ -1835,16 +2062,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J3" s="6"/>
       <c r="M3" s="0" t="s">
@@ -1853,28 +2080,28 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" s="6"/>
       <c r="M5" s="0" t="s">
@@ -1883,16 +2110,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J6" s="6"/>
     </row>
@@ -1901,11 +2128,11 @@
         <v>17</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J7" s="6"/>
       <c r="L7" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,29 +2140,29 @@
         <v>17</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J8" s="6"/>
       <c r="L8" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J9" s="6"/>
       <c r="P9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="R9" s="0" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1952,16 +2179,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,10 +2196,10 @@
         <v>17</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4729,19 +4956,19 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4749,80 +4976,80 @@
         <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4830,36 +5057,36 @@
         <v>24</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4947,16 +5174,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E3" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4964,7 +5191,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -4975,16 +5202,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5021,10 +5248,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5033,174 +5260,92 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>1</v>
+      <c r="A1" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>16</v>
+      <c r="B5" s="0" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>116</v>
+      <c r="A6" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="I8" s="6"/>
+      <c r="B8" s="0" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="I9" s="6"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>120</v>
+      <c r="D10" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="L10" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5218,10 +5363,207 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5234,10 +5576,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
@@ -5245,147 +5587,147 @@
     </row>
     <row r="2" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5393,10 +5735,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5404,10 +5746,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5415,10 +5757,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5426,10 +5768,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5437,10 +5779,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5448,17 +5790,68 @@
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="30" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5471,149 +5864,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="39.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="39.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="42.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="10.82"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>182</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,13 +15,17 @@
     <sheet name="media" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="calculates_demo" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="user_branch" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="hard_stuff" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="choices" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="queries" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="settings" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="properties" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="model" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="calculates" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="linked_table" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="household" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="members" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="education" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="hard_stuff" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="choices" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="queries" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="settings" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="properties" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="model" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="calculates" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="268">
   <si>
     <t xml:space="preserve">comments</t>
   </si>
@@ -155,6 +159,12 @@
     <t xml:space="preserve">do section hard_stuff</t>
   </si>
   <si>
+    <t xml:space="preserve">selected(data('sections'), 'linked_table')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section linked_table</t>
+  </si>
+  <si>
     <t xml:space="preserve">constraint</t>
   </si>
   <si>
@@ -395,15 +405,15 @@
     <t xml:space="preserve">Select where to go next</t>
   </si>
   <si>
+    <t xml:space="preserve">exit section</t>
+  </si>
+  <si>
     <t xml:space="preserve">some label 1</t>
   </si>
   <si>
     <t xml:space="preserve">You are at some label 1</t>
   </si>
   <si>
-    <t xml:space="preserve">exit section</t>
-  </si>
-  <si>
     <t xml:space="preserve">some label 2</t>
   </si>
   <si>
@@ -416,6 +426,114 @@
     <t xml:space="preserve">You are at some label 3</t>
   </si>
   <si>
+    <t xml:space="preserve">do section household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.button_label.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique barcode ID or locator designation for this household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('household_id') == null ? row_id == undefined ? '' : row_id : data('household_id')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">row_id is formgen specific</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many rooms does the house contain?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the house have electricity?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the house have running water?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capture the household location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.new_instance_label.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household Members Section:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This section is used to gather information about all household members.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linked_table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linked_members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make a list of all individuals who normally live in this household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add House Member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_linked_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household_owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who is the owner of the household?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">youngest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who are the two youngest members of the household?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.hide_add_instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.hide_delete_button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This section is used to gather education information on the relevant household members.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linked_members_education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questions are asked to members of the household who are at least 5 years old.</t>
+  </si>
+  <si>
     <t xml:space="preserve">possibly_required</t>
   </si>
   <si>
@@ -569,6 +687,9 @@
     <t xml:space="preserve">User branch</t>
   </si>
   <si>
+    <t xml:space="preserve">Household demo (embedded linked table)</t>
+  </si>
+  <si>
     <t xml:space="preserve">query_name</t>
   </si>
   <si>
@@ -627,6 +748,27 @@
   </si>
   <si>
     <t xml:space="preserve">context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household_member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household_id = ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ data('household_id') ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{household_id: data('household_id')}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household_id = ? and age &gt;= ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ data('household_id'), '5' ]</t>
   </si>
   <si>
     <t xml:space="preserve">setting_name</t>
@@ -806,7 +948,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -833,6 +975,30 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -936,7 +1102,7 @@
   <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1210,9 +1376,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="30" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1275,10 +1456,723 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="38.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="64.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1288,7 +2182,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="39.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="39.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="42.99"/>
@@ -1296,112 +2190,196 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>186</v>
+      <c r="A1" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>225</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>191</v>
+        <v>229</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>230</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>193</v>
+        <v>229</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>195</v>
+        <v>233</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>234</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>197</v>
+        <v>236</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -1415,7 +2393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1435,11 +2413,11 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>198</v>
+      <c r="A1" s="16" t="s">
+        <v>244</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>6</v>
@@ -1447,23 +2425,23 @@
     </row>
     <row r="2" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>20170726</v>
@@ -1471,15 +2449,15 @@
     </row>
     <row r="5" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>
@@ -1498,7 +2476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1511,77 +2489,77 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="11" width="10.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="34.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="11" width="10.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="17" width="10.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="34.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="17" width="10.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>199</v>
+      <c r="A1" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>214</v>
+      <c r="A2" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>216</v>
+      <c r="A3" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>218</v>
+      <c r="A4" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -1595,7 +2573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1621,10 +2599,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1638,7 +2616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1656,7 +2634,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>11</v>
@@ -1670,10 +2648,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -1741,10 +2719,10 @@
         <v>12</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O1" s="0" t="s">
         <v>13</v>
@@ -1772,7 +2750,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
@@ -1780,32 +2758,32 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1847,7 +2825,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -1885,7 +2863,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1907,60 +2885,60 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2038,10 +3016,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P1" s="0" t="s">
         <v>13</v>
@@ -2062,16 +3040,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J3" s="6"/>
       <c r="M3" s="0" t="s">
@@ -2080,28 +3058,28 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J5" s="6"/>
       <c r="M5" s="0" t="s">
@@ -2110,16 +3088,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J6" s="6"/>
     </row>
@@ -2128,11 +3106,11 @@
         <v>17</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J7" s="6"/>
       <c r="L7" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2140,29 +3118,29 @@
         <v>17</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J8" s="6"/>
       <c r="L8" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J9" s="6"/>
       <c r="P9" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2179,16 +3157,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2196,10 +3174,10 @@
         <v>17</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4956,19 +5934,19 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4976,80 +5954,80 @@
         <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5057,36 +6035,36 @@
         <v>24</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5174,16 +6152,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E3" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5191,7 +6169,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -5202,16 +6180,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5248,10 +6226,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5261,7 +6239,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -5284,66 +6262,71 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>120</v>
+      <c r="B3" s="0" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>121</v>
+      <c r="A4" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="D5" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>124</v>
+      <c r="A7" s="0" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="D8" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>126</v>
+      <c r="A10" s="0" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="D11" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5363,186 +6346,67 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>15</v>
-      </c>
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5560,308 +6424,148 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.38"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="I2" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D6" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>144</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -687,7 +687,7 @@
     <t xml:space="preserve">User branch</t>
   </si>
   <si>
-    <t xml:space="preserve">Household demo (embedded linked table)</t>
+    <t xml:space="preserve">Household demo (embedded linked table, multiple forms per table id)</t>
   </si>
   <si>
     <t xml:space="preserve">query_name</t>
@@ -948,7 +948,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -979,14 +979,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1467,7 +1459,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="38.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="38.55"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1492,32 +1484,32 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="64.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1577,61 +1569,61 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.33"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="n">
+      <c r="D3" s="8"/>
+      <c r="E3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1850,8 +1842,8 @@
   </sheetPr>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2190,31 +2182,31 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>225</v>
       </c>
       <c r="J1" s="0" t="s">
@@ -2234,7 +2226,7 @@
       <c r="G2" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="13" t="s">
         <v>230</v>
       </c>
       <c r="J2" s="0" t="s">
@@ -2254,7 +2246,7 @@
       <c r="G3" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>232</v>
       </c>
       <c r="J3" s="0" t="s">
@@ -2274,7 +2266,7 @@
       <c r="G4" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>234</v>
       </c>
       <c r="J4" s="0" t="s">
@@ -2311,22 +2303,22 @@
       <c r="B6" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="8" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2340,7 +2332,7 @@
       <c r="C7" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>237</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -2349,10 +2341,10 @@
       <c r="F7" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="8" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2363,10 +2355,10 @@
       <c r="B8" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>237</v>
       </c>
       <c r="E8" s="0" t="s">
@@ -2375,10 +2367,10 @@
       <c r="F8" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="8" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2413,7 +2405,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>244</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2489,76 +2481,76 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="17" width="10.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="34.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="17" width="10.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="15" width="10.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="34.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="15" width="10.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>264</v>
       </c>
     </row>
@@ -6228,7 +6220,7 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -6485,7 +6477,7 @@
         <v>134</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="I2" s="9" t="n">
+      <c r="I2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6498,7 +6490,6 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="3"/>
-      <c r="I3" s="9"/>
       <c r="J3" s="0" t="s">
         <v>135</v>
       </c>

--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="269">
   <si>
     <t xml:space="preserve">comments</t>
   </si>
@@ -90,237 +90,246 @@
     <t xml:space="preserve">begin screen</t>
   </si>
   <si>
+    <t xml:space="preserve">household id is required, so set a default in case the user never goes there</t>
+  </si>
+  <si>
     <t xml:space="preserve">assign</t>
   </si>
   <si>
+    <t xml:space="preserve">household_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('household_id') == null ? row_id == undefined ? '' : row_id : data('household_id')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What would you like to see?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('sections'), 'easy_stuff')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section easy_stuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('sections'), 'dynamic_query_filters')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section dynamic_query_filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('sections'), 'dynamic_graphs_and_assigns')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section dynamic_graphs_and_assigns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('sections'), 'media')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('sections'), 'calculates_demo')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section calculates_demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('sections'), 'user_branch')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section user_branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('sections'), 'hard_stuff')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section hard_stuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('sections'), 'linked_table')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section linked_table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.constraint_message.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter your name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name hint text!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acknowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has_html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please acknowledge that prompts can contain &lt;i&gt;&lt;span style="font-weight: bold; color: red;"&gt;html&lt;/span&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('has_html') == 'true' || data('has_html') == true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You must acknowledge the greatness of &lt;i&gt;&lt;span style="font-weight: bold; color: red;"&gt;html&lt;/span&gt;&lt;/i&gt;!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">branch_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some label in another section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one_dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regionLevel1_csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regionLevel1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 1 of admin region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo of dynamic query filters!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regionLevel2_csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regionLevel2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 2 of admin region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice_item.regionLevel1 === data('regionLevel1')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regionLevel3_csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adminRegion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice_item.regionLevel2 === data('regionLevel2')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math first number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can only type numbers in these two boxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math second number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_res</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eval(data('add_one') + data('operation') + data('add_two'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hidden_field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Your Number'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piechart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your number compared to some other numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiply_res</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiply result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result of multiplying the result on the previous page by two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number(data('add_res')) * 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yesno</t>
+  </si>
+  <si>
     <t xml:space="preserve">see_media</t>
   </si>
   <si>
+    <t xml:space="preserve">See media?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Want to see some media?</t>
+  </si>
+  <si>
     <t xml:space="preserve">data('see_media') == null ? 'yes' : data('see_media')</t>
   </si>
   <si>
-    <t xml:space="preserve">select_multiple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What would you like to see?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('sections'), 'easy_stuff')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do section easy_stuff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('sections'), 'dynamic_query_filters')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do section dynamic_query_filters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('sections'), 'dynamic_graphs_and_assigns')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do section dynamic_graphs_and_assigns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('sections'), 'media')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do section media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('sections'), 'calculates_demo')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do section calculates_demo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('sections'), 'user_branch')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do section user_branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('sections'), 'hard_stuff')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do section hard_stuff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('sections'), 'linked_table')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do section linked_table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.constraint_message.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter your name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name hint text!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acknowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">has_html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please acknowledge that prompts can contain &lt;i&gt;&lt;span style="font-weight: bold; color: red;"&gt;html&lt;/span&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data('has_html') == 'true' || data('has_html') == true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You must acknowledge the greatness of &lt;i&gt;&lt;span style="font-weight: bold; color: red;"&gt;html&lt;/span&gt;&lt;/i&gt;!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">branch_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some label in another section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regionLevel1_csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regionLevel1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level 1 of admin region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo of dynamic query filters!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regionLevel2_csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regionLevel2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level 2 of admin region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_item.regionLevel1 === data('regionLevel1')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regionLevel3_csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adminRegion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_item.regionLevel2 === data('regionLevel2')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add_one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Math first number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can only type numbers in these two boxes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">operations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add_two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Math second number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add_res</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Math result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eval(data('add_one') + data('operation') + data('add_two'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hidden_field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Your Number'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">piechart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your number compared to some other numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiply_res</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiply result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result of multiplying the result on the previous page by two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number(data('add_res')) * 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yesno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See media?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Want to see some media?</t>
-  </si>
-  <si>
     <t xml:space="preserve">data('see_media') == 'yes'</t>
   </si>
   <si>
@@ -438,13 +447,7 @@
     <t xml:space="preserve">display.button_label.text</t>
   </si>
   <si>
-    <t xml:space="preserve">household_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">Unique barcode ID or locator designation for this household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data('household_id') == null ? row_id == undefined ? '' : row_id : data('household_id')</t>
   </si>
   <si>
     <t xml:space="preserve">row_id is formgen specific</t>
@@ -1093,8 +1096,8 @@
   </sheetPr>
   <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1173,39 +1176,42 @@
       <c r="H2" s="3"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="D3" s="0" t="s">
+    <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="L3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1217,67 +1223,67 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="B10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3"/>
       <c r="J14" s="6"/>
@@ -1285,10 +1291,10 @@
     <row r="15" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
       <c r="J15" s="6"/>
@@ -1296,94 +1302,94 @@
     <row r="16" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1459,7 +1465,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="38.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="38.56"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1480,66 +1486,66 @@
         <v>8</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="64.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1589,35 +1595,35 @@
         <v>8</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="10" t="n">
@@ -1692,10 +1698,10 @@
         <v>12</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O1" s="0" t="s">
         <v>13</v>
@@ -1714,41 +1720,41 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3"/>
       <c r="I8" s="6"/>
@@ -1762,24 +1768,24 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1793,33 +1799,33 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E13" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="N13" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1840,10 +1846,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1856,10 +1862,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
@@ -1867,284 +1873,285 @@
     </row>
     <row r="2" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="B27" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>120</v>
-      </c>
       <c r="B28" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2183,195 +2190,195 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H3" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>231</v>
-      </c>
       <c r="K3" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="C6" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>240</v>
-      </c>
       <c r="K7" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2406,10 +2413,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>6</v>
@@ -2417,23 +2424,23 @@
     </row>
     <row r="2" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>20170726</v>
@@ -2441,15 +2448,15 @@
     </row>
     <row r="5" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>
@@ -2488,70 +2495,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2591,10 +2598,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2626,7 +2633,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>11</v>
@@ -2640,10 +2647,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2711,10 +2718,10 @@
         <v>12</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O1" s="0" t="s">
         <v>13</v>
@@ -2742,7 +2749,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
@@ -2750,37 +2757,37 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2817,7 +2824,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -2855,7 +2862,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2877,65 +2884,65 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3"/>
       <c r="J8" s="6"/>
@@ -3008,10 +3015,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P1" s="0" t="s">
         <v>13</v>
@@ -3032,112 +3039,112 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J3" s="6"/>
       <c r="M3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J5" s="6"/>
       <c r="M5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J7" s="6"/>
       <c r="L7" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J8" s="6"/>
       <c r="L8" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J9" s="6"/>
       <c r="P9" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -3149,32 +3156,32 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3193,10 +3200,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ15"/>
+  <dimension ref="A1:AMJ16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5926,156 +5933,167 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>94</v>
+      <c r="K4" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>96</v>
+      <c r="A5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>91</v>
+      <c r="C9" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="F10" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>108</v>
-      </c>
+      <c r="A11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>111</v>
       </c>
       <c r="G12" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3"/>
+      <c r="E13" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6144,24 +6162,24 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E3" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -6172,21 +6190,21 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -6198,7 +6216,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -6231,7 +6249,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -6254,72 +6272,72 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -6366,7 +6384,7 @@
     </row>
     <row r="2" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -6380,7 +6398,7 @@
     </row>
     <row r="4" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -6394,7 +6412,7 @@
     </row>
     <row r="6" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -6419,7 +6437,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6454,7 +6472,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>12</v>
@@ -6468,13 +6486,13 @@
     </row>
     <row r="2" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E2" s="3"/>
       <c r="I2" s="0" t="n">
@@ -6482,72 +6500,61 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="J3" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="K3" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="267">
   <si>
     <t xml:space="preserve">comments</t>
   </si>
@@ -90,361 +90,355 @@
     <t xml:space="preserve">begin screen</t>
   </si>
   <si>
-    <t xml:space="preserve">household id is required, so set a default in case the user never goes there</t>
+    <t xml:space="preserve">select_multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What would you like to see?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('sections'), 'easy_stuff')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section easy_stuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('sections'), 'dynamic_query_filters')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section dynamic_query_filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('sections'), 'dynamic_graphs_and_assigns')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section dynamic_graphs_and_assigns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('sections'), 'media')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('sections'), 'calculates_demo')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section calculates_demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('sections'), 'user_branch')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section user_branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('sections'), 'hard_stuff')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section hard_stuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('sections'), 'linked_table')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section linked_table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.constraint_message.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter your name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name hint text!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acknowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has_html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please acknowledge that prompts can contain &lt;i&gt;&lt;span style="font-weight: bold; color: red;"&gt;html&lt;/span&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('has_html') == 'true' || data('has_html') == true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You must acknowledge the greatness of &lt;i&gt;&lt;span style="font-weight: bold; color: red;"&gt;html&lt;/span&gt;&lt;/i&gt;!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">branch_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some label in another section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one_dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regionLevel1_csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regionLevel1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 1 of admin region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo of dynamic query filters!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regionLevel2_csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regionLevel2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 2 of admin region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice_item.regionLevel1 === data('regionLevel1')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regionLevel3_csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adminRegion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice_item.regionLevel2 === data('regionLevel2')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math first number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can only type numbers in these two boxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math second number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_res</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equals</t>
   </si>
   <si>
     <t xml:space="preserve">assign</t>
   </si>
   <si>
+    <t xml:space="preserve">eval(data('add_one') + data('operation') + data('add_two'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hidden_field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Your Number'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piechart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your number compared to some other numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiply_res</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiply result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result of multiplying the result on the previous page by two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number(data('add_res')) * 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yesno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see_media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See media?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Want to see some media?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('see_media') == null ? 'yes' : data('see_media')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('see_media') == 'yes'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see_more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See more?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('see_more') == 'yes'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geopoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geopoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visited_continents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which continents have you visited?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculates.ask_about_seattle()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visited_seattle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you visited Seattle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">branches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select where to go next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some label 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are at some label 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some label 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are at some label 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some label 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are at some label 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.button_label.text</t>
+  </si>
+  <si>
     <t xml:space="preserve">household_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data('household_id') == null ? row_id == undefined ? '' : row_id : data('household_id')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What would you like to see?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('sections'), 'easy_stuff')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do section easy_stuff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('sections'), 'dynamic_query_filters')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do section dynamic_query_filters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('sections'), 'dynamic_graphs_and_assigns')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do section dynamic_graphs_and_assigns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('sections'), 'media')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do section media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('sections'), 'calculates_demo')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do section calculates_demo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('sections'), 'user_branch')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do section user_branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('sections'), 'hard_stuff')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do section hard_stuff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('sections'), 'linked_table')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do section linked_table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.constraint_message.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter your name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name hint text!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acknowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">has_html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please acknowledge that prompts can contain &lt;i&gt;&lt;span style="font-weight: bold; color: red;"&gt;html&lt;/span&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data('has_html') == 'true' || data('has_html') == true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You must acknowledge the greatness of &lt;i&gt;&lt;span style="font-weight: bold; color: red;"&gt;html&lt;/span&gt;&lt;/i&gt;!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">branch_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some label in another section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regionLevel1_csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regionLevel1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level 1 of admin region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo of dynamic query filters!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regionLevel2_csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regionLevel2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level 2 of admin region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_item.regionLevel1 === data('regionLevel1')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regionLevel3_csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adminRegion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_item.regionLevel2 === data('regionLevel2')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add_one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Math first number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can only type numbers in these two boxes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">operations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add_two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Math second number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add_res</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Math result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eval(data('add_one') + data('operation') + data('add_two'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hidden_field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Your Number'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">piechart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your number compared to some other numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiply_res</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiply result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result of multiplying the result on the previous page by two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number(data('add_res')) * 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yesno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see_media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See media?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Want to see some media?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data('see_media') == null ? 'yes' : data('see_media')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data('see_media') == 'yes'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">audio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">video</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Video</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see_more</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See more?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data('see_more') == 'yes'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geopoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geopoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO signature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visited_continents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which continents have you visited?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculates.ask_about_seattle()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visited_seattle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have you visited Seattle?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">branches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select where to go next</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exit section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some label 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are at some label 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some label 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are at some label 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some label 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are at some label 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do section household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do section members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do section education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.button_label.text</t>
   </si>
   <si>
     <t xml:space="preserve">Unique barcode ID or locator designation for this household</t>
@@ -1097,7 +1091,7 @@
   <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1176,42 +1170,33 @@
       <c r="H2" s="3"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>20</v>
-      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1223,67 +1208,67 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="L9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="B10" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3"/>
       <c r="J14" s="6"/>
@@ -1291,10 +1276,10 @@
     <row r="15" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3"/>
       <c r="J15" s="6"/>
@@ -1302,94 +1287,94 @@
     <row r="16" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="0" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="0" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1486,66 +1471,66 @@
         <v>8</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="64.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>155</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>157</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1595,35 +1580,35 @@
         <v>8</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="10" t="n">
@@ -1698,10 +1683,10 @@
         <v>12</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
         <v>13</v>
@@ -1720,41 +1705,41 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="L6" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>170</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3"/>
       <c r="I8" s="6"/>
@@ -1768,24 +1753,24 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="L10" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1799,33 +1784,33 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E13" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="L13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="N13" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1862,10 +1847,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
@@ -1873,280 +1858,280 @@
     </row>
     <row r="2" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>126</v>
-      </c>
       <c r="C27" s="0" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2190,195 +2175,195 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="0" t="s">
         <v>226</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>232</v>
-      </c>
       <c r="K2" s="0" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>232</v>
-      </c>
       <c r="K3" s="0" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>241</v>
-      </c>
       <c r="K6" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>244</v>
-      </c>
       <c r="J7" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="J8" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>241</v>
-      </c>
       <c r="K8" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2413,10 +2398,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>6</v>
@@ -2424,23 +2409,23 @@
     </row>
     <row r="2" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>20170726</v>
@@ -2448,15 +2433,15 @@
     </row>
     <row r="5" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>
@@ -2495,70 +2480,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>256</v>
-      </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>259</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>260</v>
-      </c>
       <c r="E3" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>260</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2598,10 +2583,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2633,7 +2618,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>11</v>
@@ -2647,10 +2632,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2718,10 +2703,10 @@
         <v>12</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
         <v>13</v>
@@ -2749,7 +2734,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
@@ -2757,37 +2742,37 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2824,7 +2809,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -2862,7 +2847,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2884,65 +2869,65 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3"/>
       <c r="J8" s="6"/>
@@ -3015,10 +3000,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P1" s="0" t="s">
         <v>13</v>
@@ -3039,112 +3024,112 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J3" s="6"/>
       <c r="M3" s="0" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J5" s="6"/>
       <c r="M5" s="0" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J7" s="6"/>
       <c r="L7" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J8" s="6"/>
       <c r="L8" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J9" s="6"/>
       <c r="P9" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -3156,32 +3141,32 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F13" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5933,165 +5918,165 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>112</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -6162,24 +6147,24 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E3" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -6190,21 +6175,21 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -6216,7 +6201,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -6249,7 +6234,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -6272,72 +6257,72 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -6384,7 +6369,7 @@
     </row>
     <row r="2" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -6398,7 +6383,7 @@
     </row>
     <row r="4" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -6412,7 +6397,7 @@
     </row>
     <row r="6" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -6472,7 +6457,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>12</v>
@@ -6486,13 +6471,13 @@
     </row>
     <row r="2" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E2" s="3"/>
       <c r="I2" s="0" t="n">
@@ -6501,60 +6486,60 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K3" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>145</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randy\Desktop\app-designer\app\config\tables\exampleForm\forms\exampleForm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7C648E-068F-42AA-8E43-D6D89A7DD0C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="6220" windowWidth="35100" windowHeight="18460"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -535,51 +541,24 @@
     <t>string_token</t>
   </si>
   <si>
-    <t>text.hindi</t>
-  </si>
-  <si>
     <t>first_prompt</t>
   </si>
   <si>
-    <t>display.title.text.hindi</t>
-  </si>
-  <si>
     <t>hindi exampleform</t>
   </si>
   <si>
-    <t>english</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
-    <t>English (as hindi name)</t>
-  </si>
-  <si>
-    <t>hindi</t>
-  </si>
-  <si>
     <t>Hindi</t>
   </si>
   <si>
-    <t>Hindi (as hindi name)</t>
-  </si>
-  <si>
-    <t>display.locale.text.english</t>
-  </si>
-  <si>
-    <t>display.locale.text.hindi</t>
-  </si>
-  <si>
     <t>HINDI Enter an initial rating (1-10) for this survey</t>
   </si>
   <si>
     <t>display.prompt</t>
   </si>
   <si>
-    <t>display.title.text.english</t>
-  </si>
-  <si>
     <t>display.title.text</t>
   </si>
   <si>
@@ -587,12 +566,39 @@
   </si>
   <si>
     <t>(data('datetime') !== null &amp;&amp; data('datetime') !== undefined) ? data('datetime') : new Date()</t>
+  </si>
+  <si>
+    <t>text.hi</t>
+  </si>
+  <si>
+    <t>display.title.text.hi</t>
+  </si>
+  <si>
+    <t>display.locale.text.hi</t>
+  </si>
+  <si>
+    <t>display.title.text.en</t>
+  </si>
+  <si>
+    <t>display.locale.text.en</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>अंग्रेज़ी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">हिंदी </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1013,34 +1019,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" customWidth="1"/>
-    <col min="5" max="6" width="27.1640625" customWidth="1"/>
-    <col min="7" max="8" width="24.83203125" customWidth="1"/>
-    <col min="9" max="11" width="41.83203125" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" customWidth="1"/>
+    <col min="5" max="6" width="27.109375" customWidth="1"/>
+    <col min="7" max="8" width="24.77734375" customWidth="1"/>
+    <col min="9" max="11" width="41.77734375" customWidth="1"/>
     <col min="12" max="12" width="40" customWidth="1"/>
-    <col min="13" max="13" width="20.5" customWidth="1"/>
-    <col min="14" max="14" width="19.1640625" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" customWidth="1"/>
     <col min="16" max="16" width="18.33203125" customWidth="1"/>
-    <col min="17" max="17" width="18.5" customWidth="1"/>
+    <col min="17" max="17" width="18.44140625" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
-    <col min="20" max="20" width="29.83203125" customWidth="1"/>
-    <col min="21" max="21" width="18.1640625" customWidth="1"/>
+    <col min="20" max="20" width="29.77734375" customWidth="1"/>
+    <col min="21" max="21" width="18.109375" customWidth="1"/>
     <col min="22" max="22" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="17.5" customHeight="1">
+    <row r="1" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>124</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>150</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>142</v>
@@ -1105,7 +1111,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="17.5" customHeight="1">
+    <row r="2" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E2" s="4" t="s">
         <v>31</v>
       </c>
@@ -1114,7 +1120,7 @@
         <v>144</v>
       </c>
       <c r="J2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -1123,7 +1129,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="2:22" ht="17.5" customHeight="1">
+    <row r="3" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="4" t="s">
         <v>122</v>
       </c>
@@ -1137,7 +1143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="17.5" customHeight="1">
+    <row r="4" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>125</v>
       </c>
@@ -1147,7 +1153,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="2:22" ht="17.5" customHeight="1">
+    <row r="5" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>13</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="17.5" customHeight="1">
+    <row r="6" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>15</v>
       </c>
@@ -1169,7 +1175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="17.5" customHeight="1">
+    <row r="7" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>4</v>
       </c>
@@ -1180,7 +1186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:22" ht="17.5" customHeight="1">
+    <row r="8" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>3</v>
       </c>
@@ -1191,14 +1197,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:22" ht="17.5" customHeight="1">
+    <row r="9" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>126</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="2:22" ht="17.5" customHeight="1">
+    <row r="10" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>125</v>
       </c>
@@ -1208,7 +1214,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="2:22" ht="17.5" customHeight="1">
+    <row r="11" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1223,7 +1229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:22" ht="17.5" customHeight="1">
+    <row r="12" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1243,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:22" ht="17.5" customHeight="1">
+    <row r="13" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1261,7 +1267,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="17.5" customHeight="1">
+    <row r="14" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1278,14 +1284,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="17.5" customHeight="1">
+    <row r="15" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>126</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="2:22" ht="17.5" customHeight="1">
+    <row r="16" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>125</v>
       </c>
@@ -1295,7 +1301,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="3:22" ht="17.5" customHeight="1">
+    <row r="17" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1307,14 +1313,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="3:22" ht="17.5" customHeight="1">
+    <row r="18" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>126</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="3:22" ht="17.5" customHeight="1">
+    <row r="19" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>125</v>
       </c>
@@ -1324,14 +1330,14 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="3:22" ht="17.5" customHeight="1">
+    <row r="20" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>49</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="3:22" ht="17.5" customHeight="1">
+    <row r="21" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="4" t="s">
         <v>139</v>
       </c>
@@ -1343,7 +1349,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="3:22" ht="17.5" customHeight="1">
+    <row r="22" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1355,21 +1361,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:22" ht="17.5" customHeight="1">
+    <row r="23" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>56</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="3:22" ht="17.5" customHeight="1">
+    <row r="24" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>126</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="3:22" ht="17.5" customHeight="1">
+    <row r="25" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>129</v>
       </c>
@@ -1379,7 +1385,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="3:22" ht="17.5" customHeight="1">
+    <row r="26" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="1" t="s">
         <v>37</v>
       </c>
@@ -1393,7 +1399,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="3:22" ht="24" customHeight="1">
+    <row r="27" spans="3:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>125</v>
       </c>
@@ -1406,7 +1412,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="3:22" ht="17.5" customHeight="1">
+    <row r="28" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="s">
         <v>21</v>
       </c>
@@ -1423,7 +1429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:22" ht="17.5" customHeight="1">
+    <row r="29" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>126</v>
       </c>
@@ -1433,7 +1439,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="3:22" ht="17.5" customHeight="1">
+    <row r="30" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" s="1" t="s">
         <v>42</v>
       </c>
@@ -1447,7 +1453,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="3:22" ht="17.5" customHeight="1">
+    <row r="31" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="4" t="s">
         <v>139</v>
       </c>
@@ -1456,13 +1462,13 @@
         <v>44</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="3:22" ht="17.5" customHeight="1">
+    <row r="32" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -1477,7 +1483,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="3:11" ht="17.5" customHeight="1">
+    <row r="33" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>130</v>
       </c>
@@ -1486,7 +1492,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="3:11" ht="17.5" customHeight="1">
+    <row r="34" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>125</v>
       </c>
@@ -1498,7 +1504,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="3:11" ht="17.5" customHeight="1">
+    <row r="35" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="s">
         <v>15</v>
       </c>
@@ -1513,7 +1519,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="3:11" ht="17.5" customHeight="1">
+    <row r="36" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>131</v>
       </c>
@@ -1525,7 +1531,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="3:11" ht="17.5" customHeight="1">
+    <row r="37" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>132</v>
       </c>
@@ -1540,13 +1546,13 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="3:11" ht="17.5" customHeight="1">
+    <row r="38" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="3:11" ht="17.5" customHeight="1">
+    <row r="39" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E39" s="4" t="s">
         <v>122</v>
       </c>
@@ -1563,7 +1569,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="3:11" ht="17.5" customHeight="1">
+    <row r="40" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>125</v>
       </c>
@@ -1578,7 +1584,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="3:11" ht="17.5" customHeight="1">
+    <row r="41" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E41" s="4" t="s">
         <v>123</v>
       </c>
@@ -1595,7 +1601,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="3:11" ht="17.5" customHeight="1">
+    <row r="42" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>126</v>
       </c>
@@ -1608,19 +1614,19 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="3:11" ht="17.5" customHeight="1">
+    <row r="43" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="3:11" ht="17.5" customHeight="1">
+    <row r="44" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="4" t="s">
         <v>136</v>
       </c>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="3:11" ht="17.5" customHeight="1">
+    <row r="45" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>133</v>
       </c>
@@ -1630,13 +1636,13 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="3:11" ht="17.5" customHeight="1">
+    <row r="46" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="3:11" ht="17.5" customHeight="1">
+    <row r="47" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E47" s="1" t="s">
         <v>3</v>
       </c>
@@ -1651,7 +1657,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="3:11" ht="17.5" customHeight="1">
+    <row r="48" spans="3:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E48" s="1" t="s">
         <v>59</v>
       </c>
@@ -1666,7 +1672,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="3:22" ht="17.5" customHeight="1">
+    <row r="49" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E49" s="1" t="s">
         <v>4</v>
       </c>
@@ -1681,13 +1687,13 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="3:22" ht="17.5" customHeight="1">
+    <row r="50" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="3:22" ht="17.5" customHeight="1">
+    <row r="51" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>126</v>
       </c>
@@ -1697,7 +1703,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="3:22" ht="17.5" customHeight="1">
+    <row r="52" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>125</v>
       </c>
@@ -1710,7 +1716,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="3:22" ht="17.5" customHeight="1">
+    <row r="53" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
         <v>49</v>
       </c>
@@ -1719,7 +1725,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="3:22" ht="17.5" customHeight="1">
+    <row r="54" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E54" s="1" t="s">
         <v>21</v>
       </c>
@@ -1733,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="3:22" ht="17.5" customHeight="1">
+    <row r="55" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E55" s="1" t="s">
         <v>31</v>
       </c>
@@ -1756,7 +1762,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="3:22" ht="17.5" customHeight="1">
+    <row r="56" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E56" s="1" t="s">
         <v>71</v>
       </c>
@@ -1770,7 +1776,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="3:22" ht="17.5" customHeight="1">
+    <row r="57" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E57" s="4" t="s">
         <v>123</v>
       </c>
@@ -1786,7 +1792,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="3:22" ht="17.5" customHeight="1">
+    <row r="58" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
         <v>56</v>
       </c>
@@ -1795,7 +1801,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="3:22" ht="17.5" customHeight="1">
+    <row r="59" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E59" s="1" t="s">
         <v>21</v>
       </c>
@@ -1816,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="3:22" ht="17.5" customHeight="1">
+    <row r="60" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>126</v>
       </c>
@@ -1829,7 +1835,7 @@
       <c r="K60" s="2"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="3:22" ht="17.5" customHeight="1">
+    <row r="61" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>49</v>
       </c>
@@ -1842,7 +1848,7 @@
       <c r="K61" s="2"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="3:22" ht="17.5" customHeight="1">
+    <row r="62" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E62" s="4" t="s">
         <v>139</v>
       </c>
@@ -1858,7 +1864,7 @@
       <c r="K62" s="2"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="3:22" ht="17.5" customHeight="1">
+    <row r="63" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E63" s="1" t="s">
         <v>31</v>
       </c>
@@ -1885,102 +1891,102 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="3:22" ht="17.5" customHeight="1">
+    <row r="64" spans="3:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" ht="17.5" customHeight="1"/>
-    <row r="66" ht="17.5" customHeight="1"/>
-    <row r="67" ht="17.5" customHeight="1"/>
-    <row r="68" ht="17.5" customHeight="1"/>
-    <row r="69" ht="17.5" customHeight="1"/>
-    <row r="70" ht="17.5" customHeight="1"/>
-    <row r="71" ht="17.5" customHeight="1"/>
-    <row r="72" ht="17.5" customHeight="1"/>
-    <row r="73" ht="17.5" customHeight="1"/>
-    <row r="74" ht="17.5" customHeight="1"/>
-    <row r="75" ht="17.5" customHeight="1"/>
-    <row r="76" ht="17.5" customHeight="1"/>
-    <row r="77" ht="17.5" customHeight="1"/>
-    <row r="78" ht="17.5" customHeight="1"/>
-    <row r="79" ht="17.5" customHeight="1"/>
-    <row r="80" ht="17.5" customHeight="1"/>
-    <row r="81" ht="17.5" customHeight="1"/>
-    <row r="82" ht="17.5" customHeight="1"/>
-    <row r="83" ht="17.5" customHeight="1"/>
-    <row r="84" ht="17.5" customHeight="1"/>
-    <row r="85" ht="17.5" customHeight="1"/>
-    <row r="86" ht="17.5" customHeight="1"/>
-    <row r="87" ht="17.5" customHeight="1"/>
-    <row r="88" ht="17.5" customHeight="1"/>
-    <row r="89" ht="17.5" customHeight="1"/>
-    <row r="90" ht="17.5" customHeight="1"/>
-    <row r="91" ht="17.5" customHeight="1"/>
-    <row r="92" ht="17.5" customHeight="1"/>
-    <row r="93" ht="17.5" customHeight="1"/>
-    <row r="94" ht="17.5" customHeight="1"/>
-    <row r="95" ht="17.5" customHeight="1"/>
-    <row r="96" ht="17.5" customHeight="1"/>
-    <row r="97" ht="17.5" customHeight="1"/>
-    <row r="98" ht="17.5" customHeight="1"/>
-    <row r="99" ht="17.5" customHeight="1"/>
-    <row r="100" ht="17.5" customHeight="1"/>
-    <row r="101" ht="17.5" customHeight="1"/>
-    <row r="102" ht="17.5" customHeight="1"/>
-    <row r="103" ht="17.5" customHeight="1"/>
-    <row r="104" ht="17.5" customHeight="1"/>
-    <row r="105" ht="17.5" customHeight="1"/>
-    <row r="106" ht="17.5" customHeight="1"/>
-    <row r="107" ht="17.5" customHeight="1"/>
-    <row r="108" ht="17.5" customHeight="1"/>
-    <row r="109" ht="17.5" customHeight="1"/>
-    <row r="110" ht="17.5" customHeight="1"/>
-    <row r="111" ht="17.5" customHeight="1"/>
-    <row r="112" ht="17.5" customHeight="1"/>
-    <row r="113" ht="17.5" customHeight="1"/>
-    <row r="114" ht="17.5" customHeight="1"/>
-    <row r="115" ht="17.5" customHeight="1"/>
-    <row r="116" ht="17.5" customHeight="1"/>
-    <row r="117" ht="17.5" customHeight="1"/>
-    <row r="118" ht="17.5" customHeight="1"/>
-    <row r="119" ht="17.5" customHeight="1"/>
-    <row r="120" ht="17.5" customHeight="1"/>
-    <row r="121" ht="17.5" customHeight="1"/>
-    <row r="122" ht="17.5" customHeight="1"/>
-    <row r="123" ht="17.5" customHeight="1"/>
-    <row r="124" ht="17.5" customHeight="1"/>
-    <row r="125" ht="17.5" customHeight="1"/>
-    <row r="126" ht="17.5" customHeight="1"/>
-    <row r="127" ht="17.5" customHeight="1"/>
-    <row r="128" ht="17.5" customHeight="1"/>
-    <row r="129" ht="17.5" customHeight="1"/>
-    <row r="130" ht="17.5" customHeight="1"/>
-    <row r="131" ht="17.5" customHeight="1"/>
-    <row r="132" ht="17.5" customHeight="1"/>
-    <row r="133" ht="17.5" customHeight="1"/>
-    <row r="134" ht="17.5" customHeight="1"/>
-    <row r="135" ht="17.5" customHeight="1"/>
-    <row r="136" ht="17.5" customHeight="1"/>
-    <row r="137" ht="17.5" customHeight="1"/>
-    <row r="138" ht="17.5" customHeight="1"/>
-    <row r="139" ht="17.5" customHeight="1"/>
-    <row r="140" ht="17.5" customHeight="1"/>
-    <row r="141" ht="17.5" customHeight="1"/>
-    <row r="142" ht="17.5" customHeight="1"/>
-    <row r="143" ht="17.5" customHeight="1"/>
-    <row r="144" ht="17.5" customHeight="1"/>
-    <row r="145" ht="17.5" customHeight="1"/>
-    <row r="146" ht="17.5" customHeight="1"/>
-    <row r="147" ht="17.5" customHeight="1"/>
-    <row r="148" ht="17.5" customHeight="1"/>
-    <row r="149" ht="17.5" customHeight="1"/>
-    <row r="150" ht="17.5" customHeight="1"/>
-    <row r="151" ht="17.5" customHeight="1"/>
-    <row r="152" ht="17.5" customHeight="1"/>
-    <row r="153" ht="17.5" customHeight="1"/>
-    <row r="154" ht="17.5" customHeight="1"/>
-    <row r="155" ht="17.5" customHeight="1"/>
+    <row r="65" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1993,21 +1999,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="2" max="3" width="74.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>155</v>
       </c>
@@ -2015,18 +2021,18 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>157</v>
       </c>
       <c r="B2" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2040,20 +2046,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="49.5" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.5" customHeight="1">
+    <row r="1" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>119</v>
       </c>
@@ -2061,7 +2067,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.5" customHeight="1">
+    <row r="2" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
@@ -2080,21 +2086,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.5" customHeight="1">
+    <row r="1" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>117</v>
       </c>
@@ -2102,10 +2108,10 @@
         <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.5" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -2116,7 +2122,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.5" customHeight="1">
+    <row r="3" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -2127,7 +2133,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.5" customHeight="1">
+    <row r="4" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>89</v>
       </c>
@@ -2138,7 +2144,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.5" customHeight="1">
+    <row r="5" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>89</v>
       </c>
@@ -2149,7 +2155,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.5" customHeight="1">
+    <row r="6" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>89</v>
       </c>
@@ -2160,7 +2166,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.5" customHeight="1">
+    <row r="7" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
@@ -2171,7 +2177,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.5" customHeight="1">
+    <row r="8" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
@@ -2182,7 +2188,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.5" customHeight="1">
+    <row r="9" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>89</v>
       </c>
@@ -2193,7 +2199,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.5" customHeight="1">
+    <row r="10" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>89</v>
       </c>
@@ -2204,8 +2210,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="24" customHeight="1">
+    <row r="11" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2216,7 +2222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2227,7 +2233,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2238,7 +2244,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2249,7 +2255,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24" customHeight="1">
+    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -2260,7 +2266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1">
+    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2271,7 +2277,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1">
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2282,7 +2288,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1">
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2293,8 +2299,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17.5" customHeight="1"/>
-    <row r="21" spans="1:3" ht="17.5" customHeight="1">
+    <row r="20" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>109</v>
       </c>
@@ -2305,7 +2311,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17.5" customHeight="1">
+    <row r="22" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -2316,8 +2322,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17.5" customHeight="1"/>
-    <row r="24" spans="1:3" ht="17.5" customHeight="1"/>
+    <row r="23" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2329,20 +2335,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2350,10 +2356,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>122</v>
       </c>
@@ -2375,24 +2381,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.5" customHeight="1">
+    <row r="1" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>116</v>
       </c>
@@ -2400,19 +2406,19 @@
         <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.5" customHeight="1">
+    <row r="2" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>148</v>
       </c>
@@ -2420,7 +2426,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.5" customHeight="1">
+    <row r="3" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
@@ -2428,7 +2434,7 @@
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.5" customHeight="1">
+    <row r="4" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>137</v>
       </c>
@@ -2436,32 +2442,32 @@
         <v>115</v>
       </c>
       <c r="D4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" t="s">
-        <v>164</v>
-      </c>
       <c r="F6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.5" customHeight="1"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randy\Desktop\app-designer\app\config\tables\exampleForm\forms\exampleForm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38b583b282059275/Desktop/ODK-X stuff/app-designer/app/config/tables/exampleForm/forms/exampleForm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7C648E-068F-42AA-8E43-D6D89A7DD0C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{FE7C648E-068F-42AA-8E43-D6D89A7DD0C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4C07514A-686D-4B31-9324-5D94317F2E66}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -473,126 +473,92 @@
     <t>If the form does not yet have a rating, this will be proposed for the rating value.  This value is not retained in the survey result set and exists only for the duration of this survey session.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">&lt;h3&gt;
-This label uses Handlesbars template features:
+    <t>table_id</t>
+  </si>
+  <si>
+    <t>data('born') &amp;&amp; data('born').getDate() === now().getDate() &amp;&amp; data('born').getMonth() === now().getMonth()</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.prompt.audio</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.prompt.image</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text</t>
+  </si>
+  <si>
+    <t>string_token</t>
+  </si>
+  <si>
+    <t>first_prompt</t>
+  </si>
+  <si>
+    <t>hindi exampleform</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>HINDI Enter an initial rating (1-10) for this survey</t>
+  </si>
+  <si>
+    <t>display.prompt</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>default[0]</t>
+  </si>
+  <si>
+    <t>(data('datetime') !== null &amp;&amp; data('datetime') !== undefined) ? data('datetime') : new Date()</t>
+  </si>
+  <si>
+    <t>text.hi</t>
+  </si>
+  <si>
+    <t>display.title.text.hi</t>
+  </si>
+  <si>
+    <t>display.locale.text.hi</t>
+  </si>
+  <si>
+    <t>display.title.text.en</t>
+  </si>
+  <si>
+    <t>display.locale.text.en</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>अंग्रेज़ी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">हिंदी </t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;
+This label uses Handlebars template features:
 &lt;/h3&gt;
-{{#if </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>data.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>name}}
-Hello {{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>data.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>name}}!
+{{#if data.name}}
+Hello {{data.name}}!
 {{else}}
 Name not entered.
 {{/if}}</t>
-    </r>
-  </si>
-  <si>
-    <t>table_id</t>
-  </si>
-  <si>
-    <t>data('born') &amp;&amp; data('born').getDate() === now().getDate() &amp;&amp; data('born').getMonth() === now().getMonth()</t>
-  </si>
-  <si>
-    <t>display.prompt.text</t>
-  </si>
-  <si>
-    <t>display.prompt.audio</t>
-  </si>
-  <si>
-    <t>display.hint.text</t>
-  </si>
-  <si>
-    <t>display.prompt.image</t>
-  </si>
-  <si>
-    <t>display.constraint_message.text</t>
-  </si>
-  <si>
-    <t>string_token</t>
-  </si>
-  <si>
-    <t>first_prompt</t>
-  </si>
-  <si>
-    <t>hindi exampleform</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Hindi</t>
-  </si>
-  <si>
-    <t>HINDI Enter an initial rating (1-10) for this survey</t>
-  </si>
-  <si>
-    <t>display.prompt</t>
-  </si>
-  <si>
-    <t>display.title.text</t>
-  </si>
-  <si>
-    <t>default[0]</t>
-  </si>
-  <si>
-    <t>(data('datetime') !== null &amp;&amp; data('datetime') !== undefined) ? data('datetime') : new Date()</t>
-  </si>
-  <si>
-    <t>text.hi</t>
-  </si>
-  <si>
-    <t>display.title.text.hi</t>
-  </si>
-  <si>
-    <t>display.locale.text.hi</t>
-  </si>
-  <si>
-    <t>display.title.text.en</t>
-  </si>
-  <si>
-    <t>display.locale.text.en</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>अंग्रेज़ी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">हिंदी </t>
   </si>
 </sst>
 </file>
@@ -742,7 +708,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -794,7 +760,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1022,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1069,22 +1035,22 @@
         <v>83</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>142</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>5</v>
@@ -1102,7 +1068,7 @@
         <v>9</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>10</v>
@@ -1120,7 +1086,7 @@
         <v>144</v>
       </c>
       <c r="J2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -1273,7 +1239,7 @@
       </c>
       <c r="F14" s="1"/>
       <c r="I14" s="8" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="2"/>
@@ -1404,7 +1370,7 @@
         <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1462,7 +1428,7 @@
         <v>44</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -2015,24 +1981,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2108,7 +2074,7 @@
         <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -2356,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2384,7 +2350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -2406,21 +2372,21 @@
         <v>112</v>
       </c>
       <c r="C1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
         <v>168</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>166</v>
-      </c>
-      <c r="E1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>113</v>
@@ -2442,29 +2408,29 @@
         <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/config/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -988,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
